--- a/teaching/traditional_assets/database/data/australia/australia_office_equipment_services.xlsx
+++ b/teaching/traditional_assets/database/data/australia/australia_office_equipment_services.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="earnings_debt" sheetId="1" r:id="rId1"/>
+    <sheet name="cost_capital" sheetId="2" r:id="rId2"/>
+    <sheet name="asx_ivt" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -591,25 +593,25 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.0351</v>
+        <v>-0.08560000000000001</v>
       </c>
       <c r="G2">
-        <v>0.004715840386940754</v>
+        <v>0.06184448462929476</v>
       </c>
       <c r="H2">
-        <v>-0.05671100362756953</v>
+        <v>0.01193490054249548</v>
       </c>
       <c r="I2">
-        <v>-0.007261414781389159</v>
+        <v>0.005063291139240506</v>
       </c>
       <c r="J2">
-        <v>-0.007261414781389159</v>
+        <v>0.005063291139240506</v>
       </c>
       <c r="K2">
-        <v>-1.17</v>
+        <v>-0.202</v>
       </c>
       <c r="L2">
-        <v>-0.1414752116082225</v>
+        <v>-0.03652802893309223</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -633,73 +635,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0.298</v>
+        <v>0.385</v>
       </c>
       <c r="V2">
-        <v>0.136697247706422</v>
+        <v>0.05273972602739727</v>
       </c>
       <c r="W2">
-        <v>1.125</v>
+        <v>0.09351851851851851</v>
       </c>
       <c r="X2">
-        <v>0.1367700866350406</v>
+        <v>0.07871190505278165</v>
       </c>
       <c r="Y2">
-        <v>0.9882299133649595</v>
+        <v>0.01480661346573686</v>
       </c>
       <c r="Z2">
-        <v>12.05083497629275</v>
+        <v>-5.833333333333334</v>
       </c>
       <c r="AA2">
-        <v>-0.08750611122493362</v>
+        <v>-0.02953586497890296</v>
       </c>
       <c r="AB2">
-        <v>0.06719732078674909</v>
+        <v>0.05462142913999224</v>
       </c>
       <c r="AC2">
-        <v>-0.1547034320116827</v>
+        <v>-0.08415729411889519</v>
       </c>
       <c r="AD2">
-        <v>3.6</v>
+        <v>4.81</v>
       </c>
       <c r="AE2">
-        <v>0.7952595012104416</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>4.395259501210441</v>
+        <v>4.81</v>
       </c>
       <c r="AG2">
-        <v>4.097259501210441</v>
+        <v>4.425</v>
       </c>
       <c r="AH2">
-        <v>0.6684541500455331</v>
+        <v>0.3971924029727498</v>
       </c>
       <c r="AI2">
-        <v>1.966330754362218</v>
+        <v>1.536741214057508</v>
       </c>
       <c r="AJ2">
-        <v>0.6527146918843117</v>
+        <v>0.3773987206823028</v>
       </c>
       <c r="AK2">
-        <v>2.1149771100105</v>
+        <v>1.612021857923497</v>
       </c>
       <c r="AL2">
-        <v>0.62</v>
+        <v>0.325</v>
       </c>
       <c r="AM2">
-        <v>0.613</v>
+        <v>0.312</v>
       </c>
       <c r="AN2">
-        <v>24.16107382550335</v>
+        <v>72.87878787878788</v>
       </c>
       <c r="AO2">
-        <v>-0.8370967741935484</v>
+        <v>0.08615384615384615</v>
       </c>
       <c r="AP2">
-        <v>27.49838591416403</v>
+        <v>67.04545454545453</v>
       </c>
       <c r="AQ2">
-        <v>-0.8466557911908646</v>
+        <v>0.08974358974358974</v>
       </c>
     </row>
     <row r="3">
@@ -719,25 +721,25 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.0351</v>
+        <v>-0.08560000000000001</v>
       </c>
       <c r="G3">
-        <v>0.004715840386940754</v>
+        <v>0.06184448462929476</v>
       </c>
       <c r="H3">
-        <v>-0.05671100362756953</v>
+        <v>0.01193490054249548</v>
       </c>
       <c r="I3">
-        <v>-0.007261414781389159</v>
+        <v>0.005063291139240506</v>
       </c>
       <c r="J3">
-        <v>-0.007261414781389159</v>
+        <v>0.005063291139240506</v>
       </c>
       <c r="K3">
-        <v>-1.17</v>
+        <v>-0.202</v>
       </c>
       <c r="L3">
-        <v>-0.1414752116082225</v>
+        <v>-0.03652802893309223</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -761,73 +763,8788 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.298</v>
+        <v>0.385</v>
       </c>
       <c r="V3">
-        <v>0.136697247706422</v>
+        <v>0.05273972602739727</v>
       </c>
       <c r="W3">
-        <v>1.125</v>
+        <v>0.09351851851851851</v>
       </c>
       <c r="X3">
-        <v>0.1367700866350406</v>
+        <v>0.07871190505278165</v>
       </c>
       <c r="Y3">
-        <v>0.9882299133649595</v>
+        <v>0.01480661346573686</v>
       </c>
       <c r="Z3">
-        <v>12.05083497629275</v>
+        <v>-5.833333333333334</v>
       </c>
       <c r="AA3">
-        <v>-0.08750611122493362</v>
+        <v>-0.02953586497890296</v>
       </c>
       <c r="AB3">
-        <v>0.06719732078674909</v>
+        <v>0.05462142913999224</v>
       </c>
       <c r="AC3">
-        <v>-0.1547034320116827</v>
+        <v>-0.08415729411889519</v>
       </c>
       <c r="AD3">
-        <v>3.6</v>
+        <v>4.81</v>
       </c>
       <c r="AE3">
-        <v>0.7952595012104416</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>4.395259501210441</v>
+        <v>4.81</v>
       </c>
       <c r="AG3">
-        <v>4.097259501210441</v>
+        <v>4.425</v>
       </c>
       <c r="AH3">
-        <v>0.6684541500455331</v>
+        <v>0.3971924029727498</v>
       </c>
       <c r="AI3">
-        <v>1.966330754362218</v>
+        <v>1.536741214057508</v>
       </c>
       <c r="AJ3">
-        <v>0.6527146918843117</v>
+        <v>0.3773987206823028</v>
       </c>
       <c r="AK3">
-        <v>2.1149771100105</v>
+        <v>1.612021857923497</v>
       </c>
       <c r="AL3">
+        <v>0.325</v>
+      </c>
+      <c r="AM3">
+        <v>0.312</v>
+      </c>
+      <c r="AN3">
+        <v>72.87878787878788</v>
+      </c>
+      <c r="AO3">
+        <v>0.08615384615384615</v>
+      </c>
+      <c r="AP3">
+        <v>67.04545454545453</v>
+      </c>
+      <c r="AQ3">
+        <v>0.08974358974358974</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AQ2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>company_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>exchange_ticker</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>industry_group</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_capital</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_capital</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>actual_equity_value</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_equity_value</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>actual_enterprise_value</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_enterprise_value</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_capital</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_capital</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_rating</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_rating</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_equity</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>actual_beta</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_beta</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>country_default_spread</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>risk_free</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>market_capitalization</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_risk_premium</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>marginal_tax_rate</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_max_percentage</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_method</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_ebitda</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_depreciation</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>reported_capital_spending</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_debt</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_mv_debt</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>reported_interest_expense</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>reported_bv_debt</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>reported_cash</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>flag_bankruptcy</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>flag_refinanced</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>rating_firm_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Inventis Limited (ASX:IVT)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ASX:IVT</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Office Equipment &amp; Services</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="E2">
+        <v>0.39719240297275</v>
+      </c>
+      <c r="F2">
+        <v>0.02</v>
+      </c>
+      <c r="G2">
+        <v>7.3</v>
+      </c>
+      <c r="H2">
+        <v>11.3660282580177</v>
+      </c>
+      <c r="I2">
+        <v>11.725</v>
+      </c>
+      <c r="J2">
+        <v>11.2232282580177</v>
+      </c>
+      <c r="K2">
+        <v>4.81</v>
+      </c>
+      <c r="L2">
+        <v>0.2422</v>
+      </c>
+      <c r="M2">
+        <v>0.0546214291399922</v>
+      </c>
+      <c r="N2">
+        <v>0.0566476743455512</v>
+      </c>
+      <c r="O2">
+        <v>0.01806</v>
+      </c>
+      <c r="P2">
+        <v>0.01582</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="S2">
+        <v>0.07871190505278169</v>
+      </c>
+      <c r="T2">
+        <v>0.0574808921893379</v>
+      </c>
+      <c r="U2">
+        <v>1.47059120874537</v>
+      </c>
+      <c r="V2">
+        <v>1.02078161418089</v>
+      </c>
+      <c r="W2">
+        <v>5.115351168857742</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="AA2">
+        <v>7.3</v>
+      </c>
+      <c r="AB2">
+        <v>0.0472</v>
+      </c>
+      <c r="AC2">
+        <v>0.0258</v>
+      </c>
+      <c r="AD2">
+        <v>0.3</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>0.066</v>
+      </c>
+      <c r="AH2">
+        <v>0.03800000000000001</v>
+      </c>
+      <c r="AI2">
+        <v>0.07699999999999996</v>
+      </c>
+      <c r="AJ2">
+        <v>4.81</v>
+      </c>
+      <c r="AK2">
+        <v>4.81</v>
+      </c>
+      <c r="AL2">
+        <v>0.325</v>
+      </c>
+      <c r="AN2">
+        <v>0.385</v>
+      </c>
+      <c r="AO2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>debt_capital</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>cost_capital</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>equity_value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>enterprise_value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>debt_issued</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>debt</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>cash</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>marketcap</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>drop_ebitda</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ebitda</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>depreciation</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ebit</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>interest_expense</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>taxable_income</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>taxes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>net_income</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>operating_cash_flow</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>debt_equity</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>tax_rate</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>debt_rating</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.05680228807399512</v>
+      </c>
+      <c r="C2">
+        <v>11.57169811943896</v>
+      </c>
+      <c r="D2">
+        <v>11.18669811943896</v>
+      </c>
+      <c r="E2">
+        <v>-4.81</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0.385</v>
+      </c>
+      <c r="H2">
+        <v>7.3</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0.066</v>
+      </c>
+      <c r="K2">
+        <v>0.03800000000000001</v>
+      </c>
+      <c r="L2">
+        <v>0.028</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0.028</v>
+      </c>
+      <c r="O2">
+        <v>0.008399999999999999</v>
+      </c>
+      <c r="P2">
+        <v>0.0196</v>
+      </c>
+      <c r="Q2">
+        <v>0.05760000000000001</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.05680228807399512</v>
+      </c>
+      <c r="T2">
+        <v>1.006404408347354</v>
+      </c>
+      <c r="U2">
+        <v>0.0162</v>
+      </c>
+      <c r="V2">
+        <v>0.3</v>
+      </c>
+      <c r="W2">
+        <v>0.01134</v>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y2">
+        <v>10000000</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>0.01</v>
+      </c>
+      <c r="B3">
+        <v>0.05668018120977313</v>
+      </c>
+      <c r="C3">
+        <v>11.47942816173692</v>
+      </c>
+      <c r="D3">
+        <v>11.21552816173692</v>
+      </c>
+      <c r="E3">
+        <v>-4.688899999999999</v>
+      </c>
+      <c r="F3">
+        <v>0.1211</v>
+      </c>
+      <c r="G3">
+        <v>0.385</v>
+      </c>
+      <c r="H3">
+        <v>7.3</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0.066</v>
+      </c>
+      <c r="K3">
+        <v>0.03800000000000001</v>
+      </c>
+      <c r="L3">
+        <v>0.028</v>
+      </c>
+      <c r="M3">
+        <v>0.00196182</v>
+      </c>
+      <c r="N3">
+        <v>0.02603818</v>
+      </c>
+      <c r="O3">
+        <v>0.007811453999999999</v>
+      </c>
+      <c r="P3">
+        <v>0.018226726</v>
+      </c>
+      <c r="Q3">
+        <v>0.056226726</v>
+      </c>
+      <c r="R3">
+        <v>0.0101010101010101</v>
+      </c>
+      <c r="S3">
+        <v>0.05713816283815468</v>
+      </c>
+      <c r="T3">
+        <v>1.013520399113447</v>
+      </c>
+      <c r="U3">
+        <v>0.0162</v>
+      </c>
+      <c r="V3">
+        <v>0.3</v>
+      </c>
+      <c r="W3">
+        <v>0.01134</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y3">
+        <v>14.27246128594876</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>0.02</v>
+      </c>
+      <c r="B4">
+        <v>0.05664767434555115</v>
+      </c>
+      <c r="C4">
+        <v>11.36602825801769</v>
+      </c>
+      <c r="D4">
+        <v>11.22322825801769</v>
+      </c>
+      <c r="E4">
+        <v>-4.567799999999999</v>
+      </c>
+      <c r="F4">
+        <v>0.2422</v>
+      </c>
+      <c r="G4">
+        <v>0.385</v>
+      </c>
+      <c r="H4">
+        <v>7.3</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0.066</v>
+      </c>
+      <c r="K4">
+        <v>0.03800000000000001</v>
+      </c>
+      <c r="L4">
+        <v>0.028</v>
+      </c>
+      <c r="M4">
+        <v>0.00547372</v>
+      </c>
+      <c r="N4">
+        <v>0.02252628</v>
+      </c>
+      <c r="O4">
+        <v>0.006757883999999999</v>
+      </c>
+      <c r="P4">
+        <v>0.015768396</v>
+      </c>
+      <c r="Q4">
+        <v>0.053768396</v>
+      </c>
+      <c r="R4">
+        <v>0.02040816326530612</v>
+      </c>
+      <c r="S4">
+        <v>0.05748089218933791</v>
+      </c>
+      <c r="T4">
+        <v>1.020781614180888</v>
+      </c>
+      <c r="U4">
+        <v>0.0226</v>
+      </c>
+      <c r="V4">
+        <v>0.3</v>
+      </c>
+      <c r="W4">
+        <v>0.01582</v>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y4">
+        <v>5.115351168857742</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>0.03</v>
+      </c>
+      <c r="B5">
+        <v>0.05980062816746691</v>
+      </c>
+      <c r="C5">
+        <v>10.54421775768482</v>
+      </c>
+      <c r="D5">
+        <v>10.52251775768482</v>
+      </c>
+      <c r="E5">
+        <v>-4.4467</v>
+      </c>
+      <c r="F5">
+        <v>0.3633</v>
+      </c>
+      <c r="G5">
+        <v>0.385</v>
+      </c>
+      <c r="H5">
+        <v>7.3</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0.066</v>
+      </c>
+      <c r="K5">
+        <v>0.03800000000000001</v>
+      </c>
+      <c r="L5">
+        <v>0.028</v>
+      </c>
+      <c r="M5">
+        <v>0.05093465999999999</v>
+      </c>
+      <c r="N5">
+        <v>-0.02293466</v>
+      </c>
+      <c r="O5">
+        <v>-0.006880397999999999</v>
+      </c>
+      <c r="P5">
+        <v>-0.016054262</v>
+      </c>
+      <c r="Q5">
+        <v>0.02194573800000001</v>
+      </c>
+      <c r="R5">
+        <v>0.03092783505154639</v>
+      </c>
+      <c r="S5">
+        <v>0.05802914410924126</v>
+      </c>
+      <c r="T5">
+        <v>1.032397120958501</v>
+      </c>
+      <c r="U5">
+        <v>0.1402</v>
+      </c>
+      <c r="V5">
+        <v>0.1649171703511911</v>
+      </c>
+      <c r="W5">
+        <v>0.117078612716763</v>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y5">
+        <v>0.5497239011706371</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>0.04</v>
+      </c>
+      <c r="B6">
+        <v>0.06290528029337519</v>
+      </c>
+      <c r="C6">
+        <v>9.813686057159956</v>
+      </c>
+      <c r="D6">
+        <v>9.913086057159957</v>
+      </c>
+      <c r="E6">
+        <v>-4.3256</v>
+      </c>
+      <c r="F6">
+        <v>0.4844</v>
+      </c>
+      <c r="G6">
+        <v>0.385</v>
+      </c>
+      <c r="H6">
+        <v>7.3</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0.066</v>
+      </c>
+      <c r="K6">
+        <v>0.03800000000000001</v>
+      </c>
+      <c r="L6">
+        <v>0.028</v>
+      </c>
+      <c r="M6">
+        <v>0.08898428</v>
+      </c>
+      <c r="N6">
+        <v>-0.06098428</v>
+      </c>
+      <c r="O6">
+        <v>-0.018295284</v>
+      </c>
+      <c r="P6">
+        <v>-0.04268899600000001</v>
+      </c>
+      <c r="Q6">
+        <v>-0.004688996000000001</v>
+      </c>
+      <c r="R6">
+        <v>0.04166666666666667</v>
+      </c>
+      <c r="S6">
+        <v>0.05859471032486699</v>
+      </c>
+      <c r="T6">
+        <v>1.044379456035317</v>
+      </c>
+      <c r="U6">
+        <v>0.1837</v>
+      </c>
+      <c r="V6">
+        <v>0.09439869603934538</v>
+      </c>
+      <c r="W6">
+        <v>0.1663589595375723</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y6">
+        <v>0.3146623201311513</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>0.05</v>
+      </c>
+      <c r="B7">
+        <v>0.0646492802933752</v>
+      </c>
+      <c r="C7">
+        <v>9.380234713257183</v>
+      </c>
+      <c r="D7">
+        <v>9.600734713257182</v>
+      </c>
+      <c r="E7">
+        <v>-4.204499999999999</v>
+      </c>
+      <c r="F7">
+        <v>0.6055</v>
+      </c>
+      <c r="G7">
+        <v>0.385</v>
+      </c>
+      <c r="H7">
+        <v>7.3</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0.066</v>
+      </c>
+      <c r="K7">
+        <v>0.03800000000000001</v>
+      </c>
+      <c r="L7">
+        <v>0.028</v>
+      </c>
+      <c r="M7">
+        <v>0.11123035</v>
+      </c>
+      <c r="N7">
+        <v>-0.08323035000000001</v>
+      </c>
+      <c r="O7">
+        <v>-0.024969105</v>
+      </c>
+      <c r="P7">
+        <v>-0.058261245</v>
+      </c>
+      <c r="Q7">
+        <v>-0.020261245</v>
+      </c>
+      <c r="R7">
+        <v>0.05263157894736843</v>
+      </c>
+      <c r="S7">
+        <v>0.05911360201249717</v>
+      </c>
+      <c r="T7">
+        <v>1.055372923993584</v>
+      </c>
+      <c r="U7">
+        <v>0.1837</v>
+      </c>
+      <c r="V7">
+        <v>0.07551895683147629</v>
+      </c>
+      <c r="W7">
+        <v>0.1698271676300578</v>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y7">
+        <v>0.2517298561049209</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>0.06</v>
+      </c>
+      <c r="B8">
+        <v>0.0663932802933752</v>
+      </c>
+      <c r="C8">
+        <v>8.965865851249559</v>
+      </c>
+      <c r="D8">
+        <v>9.307465851249558</v>
+      </c>
+      <c r="E8">
+        <v>-4.083399999999999</v>
+      </c>
+      <c r="F8">
+        <v>0.7265999999999999</v>
+      </c>
+      <c r="G8">
+        <v>0.385</v>
+      </c>
+      <c r="H8">
+        <v>7.3</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0.066</v>
+      </c>
+      <c r="K8">
+        <v>0.03800000000000001</v>
+      </c>
+      <c r="L8">
+        <v>0.028</v>
+      </c>
+      <c r="M8">
+        <v>0.13347642</v>
+      </c>
+      <c r="N8">
+        <v>-0.10547642</v>
+      </c>
+      <c r="O8">
+        <v>-0.03164292599999999</v>
+      </c>
+      <c r="P8">
+        <v>-0.073833494</v>
+      </c>
+      <c r="Q8">
+        <v>-0.03583349399999999</v>
+      </c>
+      <c r="R8">
+        <v>0.06382978723404255</v>
+      </c>
+      <c r="S8">
+        <v>0.05964353394880033</v>
+      </c>
+      <c r="T8">
+        <v>1.066600295525431</v>
+      </c>
+      <c r="U8">
+        <v>0.1837</v>
+      </c>
+      <c r="V8">
+        <v>0.06293246402623025</v>
+      </c>
+      <c r="W8">
+        <v>0.1721393063583815</v>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y8">
+        <v>0.2097748800874342</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="B9">
+        <v>0.06813728029337521</v>
+      </c>
+      <c r="C9">
+        <v>8.568882595537499</v>
+      </c>
+      <c r="D9">
+        <v>9.031582595537499</v>
+      </c>
+      <c r="E9">
+        <v>-3.962299999999999</v>
+      </c>
+      <c r="F9">
+        <v>0.8477</v>
+      </c>
+      <c r="G9">
+        <v>0.385</v>
+      </c>
+      <c r="H9">
+        <v>7.3</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0.066</v>
+      </c>
+      <c r="K9">
+        <v>0.03800000000000001</v>
+      </c>
+      <c r="L9">
+        <v>0.028</v>
+      </c>
+      <c r="M9">
+        <v>0.15572249</v>
+      </c>
+      <c r="N9">
+        <v>-0.12772249</v>
+      </c>
+      <c r="O9">
+        <v>-0.038316747</v>
+      </c>
+      <c r="P9">
+        <v>-0.089405743</v>
+      </c>
+      <c r="Q9">
+        <v>-0.05140574299999999</v>
+      </c>
+      <c r="R9">
+        <v>0.07526881720430109</v>
+      </c>
+      <c r="S9">
+        <v>0.06018486227083045</v>
+      </c>
+      <c r="T9">
+        <v>1.078069115907425</v>
+      </c>
+      <c r="U9">
+        <v>0.1837</v>
+      </c>
+      <c r="V9">
+        <v>0.05394211202248306</v>
+      </c>
+      <c r="W9">
+        <v>0.1737908340214699</v>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y9">
+        <v>0.1798070400749435</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>0.08</v>
+      </c>
+      <c r="B10">
+        <v>0.0698812802933752</v>
+      </c>
+      <c r="C10">
+        <v>8.187783467583451</v>
+      </c>
+      <c r="D10">
+        <v>8.771583467583451</v>
+      </c>
+      <c r="E10">
+        <v>-3.8412</v>
+      </c>
+      <c r="F10">
+        <v>0.9688</v>
+      </c>
+      <c r="G10">
+        <v>0.385</v>
+      </c>
+      <c r="H10">
+        <v>7.3</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0.066</v>
+      </c>
+      <c r="K10">
+        <v>0.03800000000000001</v>
+      </c>
+      <c r="L10">
+        <v>0.028</v>
+      </c>
+      <c r="M10">
+        <v>0.17796856</v>
+      </c>
+      <c r="N10">
+        <v>-0.14996856</v>
+      </c>
+      <c r="O10">
+        <v>-0.044990568</v>
+      </c>
+      <c r="P10">
+        <v>-0.104977992</v>
+      </c>
+      <c r="Q10">
+        <v>-0.06697799199999999</v>
+      </c>
+      <c r="R10">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="S10">
+        <v>0.0607379585998612</v>
+      </c>
+      <c r="T10">
+        <v>1.089787258471636</v>
+      </c>
+      <c r="U10">
+        <v>0.1837</v>
+      </c>
+      <c r="V10">
+        <v>0.04719934801967269</v>
+      </c>
+      <c r="W10">
+        <v>0.1750294797687861</v>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y10">
+        <v>0.1573311600655756</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>0.09</v>
+      </c>
+      <c r="B11">
+        <v>0.0716252802933752</v>
+      </c>
+      <c r="C11">
+        <v>7.821235047689354</v>
+      </c>
+      <c r="D11">
+        <v>8.526135047689355</v>
+      </c>
+      <c r="E11">
+        <v>-3.7201</v>
+      </c>
+      <c r="F11">
+        <v>1.0899</v>
+      </c>
+      <c r="G11">
+        <v>0.385</v>
+      </c>
+      <c r="H11">
+        <v>7.3</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0.066</v>
+      </c>
+      <c r="K11">
+        <v>0.03800000000000001</v>
+      </c>
+      <c r="L11">
+        <v>0.028</v>
+      </c>
+      <c r="M11">
+        <v>0.20021463</v>
+      </c>
+      <c r="N11">
+        <v>-0.17221463</v>
+      </c>
+      <c r="O11">
+        <v>-0.05166438899999999</v>
+      </c>
+      <c r="P11">
+        <v>-0.120550241</v>
+      </c>
+      <c r="Q11">
+        <v>-0.08255024099999998</v>
+      </c>
+      <c r="R11">
+        <v>0.0989010989010989</v>
+      </c>
+      <c r="S11">
+        <v>0.06130321089216738</v>
+      </c>
+      <c r="T11">
+        <v>1.101762942630665</v>
+      </c>
+      <c r="U11">
+        <v>0.1837</v>
+      </c>
+      <c r="V11">
+        <v>0.04195497601748683</v>
+      </c>
+      <c r="W11">
+        <v>0.1759928709055877</v>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y11">
+        <v>0.1398499200582894</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>0.1</v>
+      </c>
+      <c r="B12">
+        <v>0.07336928029337521</v>
+      </c>
+      <c r="C12">
+        <v>7.468049101740188</v>
+      </c>
+      <c r="D12">
+        <v>8.294049101740189</v>
+      </c>
+      <c r="E12">
+        <v>-3.598999999999999</v>
+      </c>
+      <c r="F12">
+        <v>1.211</v>
+      </c>
+      <c r="G12">
+        <v>0.385</v>
+      </c>
+      <c r="H12">
+        <v>7.3</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0.066</v>
+      </c>
+      <c r="K12">
+        <v>0.03800000000000001</v>
+      </c>
+      <c r="L12">
+        <v>0.028</v>
+      </c>
+      <c r="M12">
+        <v>0.2224607</v>
+      </c>
+      <c r="N12">
+        <v>-0.1944607</v>
+      </c>
+      <c r="O12">
+        <v>-0.05833821</v>
+      </c>
+      <c r="P12">
+        <v>-0.13612249</v>
+      </c>
+      <c r="Q12">
+        <v>-0.09812249000000001</v>
+      </c>
+      <c r="R12">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="S12">
+        <v>0.06188102434652479</v>
+      </c>
+      <c r="T12">
+        <v>1.114004753104339</v>
+      </c>
+      <c r="U12">
+        <v>0.1837</v>
+      </c>
+      <c r="V12">
+        <v>0.03775947841573814</v>
+      </c>
+      <c r="W12">
+        <v>0.1767635838150289</v>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y12">
+        <v>0.1258649280524605</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>0.11</v>
+      </c>
+      <c r="B13">
+        <v>0.07511328029337519</v>
+      </c>
+      <c r="C13">
+        <v>7.127163344686974</v>
+      </c>
+      <c r="D13">
+        <v>8.074263344686974</v>
+      </c>
+      <c r="E13">
+        <v>-3.4779</v>
+      </c>
+      <c r="F13">
+        <v>1.3321</v>
+      </c>
+      <c r="G13">
+        <v>0.385</v>
+      </c>
+      <c r="H13">
+        <v>7.3</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0.066</v>
+      </c>
+      <c r="K13">
+        <v>0.03800000000000001</v>
+      </c>
+      <c r="L13">
+        <v>0.028</v>
+      </c>
+      <c r="M13">
+        <v>0.24470677</v>
+      </c>
+      <c r="N13">
+        <v>-0.21670677</v>
+      </c>
+      <c r="O13">
+        <v>-0.06501203099999998</v>
+      </c>
+      <c r="P13">
+        <v>-0.151694739</v>
+      </c>
+      <c r="Q13">
+        <v>-0.113694739</v>
+      </c>
+      <c r="R13">
+        <v>0.1235955056179775</v>
+      </c>
+      <c r="S13">
+        <v>0.06247182237289023</v>
+      </c>
+      <c r="T13">
+        <v>1.12652166044259</v>
+      </c>
+      <c r="U13">
+        <v>0.1837</v>
+      </c>
+      <c r="V13">
+        <v>0.03432679855976196</v>
+      </c>
+      <c r="W13">
+        <v>0.1773941671045717</v>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y13">
+        <v>0.1144226618658732</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>0.12</v>
+      </c>
+      <c r="B14">
+        <v>0.0768572802933752</v>
+      </c>
+      <c r="C14">
+        <v>6.797625183588964</v>
+      </c>
+      <c r="D14">
+        <v>7.865825183588963</v>
+      </c>
+      <c r="E14">
+        <v>-3.3568</v>
+      </c>
+      <c r="F14">
+        <v>1.4532</v>
+      </c>
+      <c r="G14">
+        <v>0.385</v>
+      </c>
+      <c r="H14">
+        <v>7.3</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0.066</v>
+      </c>
+      <c r="K14">
+        <v>0.03800000000000001</v>
+      </c>
+      <c r="L14">
+        <v>0.028</v>
+      </c>
+      <c r="M14">
+        <v>0.26695284</v>
+      </c>
+      <c r="N14">
+        <v>-0.23895284</v>
+      </c>
+      <c r="O14">
+        <v>-0.07168585199999999</v>
+      </c>
+      <c r="P14">
+        <v>-0.167266988</v>
+      </c>
+      <c r="Q14">
+        <v>-0.129266988</v>
+      </c>
+      <c r="R14">
+        <v>0.1363636363636364</v>
+      </c>
+      <c r="S14">
+        <v>0.06307604762712762</v>
+      </c>
+      <c r="T14">
+        <v>1.139323042947619</v>
+      </c>
+      <c r="U14">
+        <v>0.1837</v>
+      </c>
+      <c r="V14">
+        <v>0.03146623201311512</v>
+      </c>
+      <c r="W14">
+        <v>0.1779196531791908</v>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y14">
+        <v>0.1048874400437171</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>0.13</v>
+      </c>
+      <c r="B15">
+        <v>0.07860128029337521</v>
+      </c>
+      <c r="C15">
+        <v>6.478577915340721</v>
+      </c>
+      <c r="D15">
+        <v>7.667877915340721</v>
+      </c>
+      <c r="E15">
+        <v>-3.2357</v>
+      </c>
+      <c r="F15">
+        <v>1.5743</v>
+      </c>
+      <c r="G15">
+        <v>0.385</v>
+      </c>
+      <c r="H15">
+        <v>7.3</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0.066</v>
+      </c>
+      <c r="K15">
+        <v>0.03800000000000001</v>
+      </c>
+      <c r="L15">
+        <v>0.028</v>
+      </c>
+      <c r="M15">
+        <v>0.28919891</v>
+      </c>
+      <c r="N15">
+        <v>-0.2611989100000001</v>
+      </c>
+      <c r="O15">
+        <v>-0.07835967300000002</v>
+      </c>
+      <c r="P15">
+        <v>-0.182839237</v>
+      </c>
+      <c r="Q15">
+        <v>-0.144839237</v>
+      </c>
+      <c r="R15">
+        <v>0.1494252873563219</v>
+      </c>
+      <c r="S15">
+        <v>0.06369416311709461</v>
+      </c>
+      <c r="T15">
+        <v>1.152418710107937</v>
+      </c>
+      <c r="U15">
+        <v>0.1837</v>
+      </c>
+      <c r="V15">
+        <v>0.02904575262749088</v>
+      </c>
+      <c r="W15">
+        <v>0.1783642952423299</v>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y15">
+        <v>0.09681917542496954</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>0.14</v>
+      </c>
+      <c r="B16">
+        <v>0.0803452802933752</v>
+      </c>
+      <c r="C16">
+        <v>6.169248957285626</v>
+      </c>
+      <c r="D16">
+        <v>7.479648957285627</v>
+      </c>
+      <c r="E16">
+        <v>-3.114599999999999</v>
+      </c>
+      <c r="F16">
+        <v>1.6954</v>
+      </c>
+      <c r="G16">
+        <v>0.385</v>
+      </c>
+      <c r="H16">
+        <v>7.3</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0.066</v>
+      </c>
+      <c r="K16">
+        <v>0.03800000000000001</v>
+      </c>
+      <c r="L16">
+        <v>0.028</v>
+      </c>
+      <c r="M16">
+        <v>0.31144498</v>
+      </c>
+      <c r="N16">
+        <v>-0.28344498</v>
+      </c>
+      <c r="O16">
+        <v>-0.08503349399999999</v>
+      </c>
+      <c r="P16">
+        <v>-0.198411486</v>
+      </c>
+      <c r="Q16">
+        <v>-0.160411486</v>
+      </c>
+      <c r="R16">
+        <v>0.1627906976744186</v>
+      </c>
+      <c r="S16">
+        <v>0.06432665338589803</v>
+      </c>
+      <c r="T16">
+        <v>1.165818927667331</v>
+      </c>
+      <c r="U16">
+        <v>0.1837</v>
+      </c>
+      <c r="V16">
+        <v>0.02697105601124153</v>
+      </c>
+      <c r="W16">
+        <v>0.1787454170107349</v>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y16">
+        <v>0.08990352003747182</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>0.15</v>
+      </c>
+      <c r="B17">
+        <v>0.08208928029337519</v>
+      </c>
+      <c r="C17">
+        <v>5.868939769766113</v>
+      </c>
+      <c r="D17">
+        <v>7.300439769766113</v>
+      </c>
+      <c r="E17">
+        <v>-2.9935</v>
+      </c>
+      <c r="F17">
+        <v>1.8165</v>
+      </c>
+      <c r="G17">
+        <v>0.385</v>
+      </c>
+      <c r="H17">
+        <v>7.3</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0.066</v>
+      </c>
+      <c r="K17">
+        <v>0.03800000000000001</v>
+      </c>
+      <c r="L17">
+        <v>0.028</v>
+      </c>
+      <c r="M17">
+        <v>0.33369105</v>
+      </c>
+      <c r="N17">
+        <v>-0.30569105</v>
+      </c>
+      <c r="O17">
+        <v>-0.09170731499999998</v>
+      </c>
+      <c r="P17">
+        <v>-0.213983735</v>
+      </c>
+      <c r="Q17">
+        <v>-0.175983735</v>
+      </c>
+      <c r="R17">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="S17">
+        <v>0.0649740257786733</v>
+      </c>
+      <c r="T17">
+        <v>1.179534444463417</v>
+      </c>
+      <c r="U17">
+        <v>0.1837</v>
+      </c>
+      <c r="V17">
+        <v>0.0251729856104921</v>
+      </c>
+      <c r="W17">
+        <v>0.1790757225433526</v>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y17">
+        <v>0.08390995203497376</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>0.16</v>
+      </c>
+      <c r="B18">
+        <v>0.0838332802933752</v>
+      </c>
+      <c r="C18">
+        <v>5.577017193483986</v>
+      </c>
+      <c r="D18">
+        <v>7.129617193483986</v>
+      </c>
+      <c r="E18">
+        <v>-2.8724</v>
+      </c>
+      <c r="F18">
+        <v>1.9376</v>
+      </c>
+      <c r="G18">
+        <v>0.385</v>
+      </c>
+      <c r="H18">
+        <v>7.3</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0.066</v>
+      </c>
+      <c r="K18">
+        <v>0.03800000000000001</v>
+      </c>
+      <c r="L18">
+        <v>0.028</v>
+      </c>
+      <c r="M18">
+        <v>0.35593712</v>
+      </c>
+      <c r="N18">
+        <v>-0.32793712</v>
+      </c>
+      <c r="O18">
+        <v>-0.09838113599999999</v>
+      </c>
+      <c r="P18">
+        <v>-0.229555984</v>
+      </c>
+      <c r="Q18">
+        <v>-0.191555984</v>
+      </c>
+      <c r="R18">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="S18">
+        <v>0.06563681179984798</v>
+      </c>
+      <c r="T18">
+        <v>1.19357652118322</v>
+      </c>
+      <c r="U18">
+        <v>0.1837</v>
+      </c>
+      <c r="V18">
+        <v>0.02359967400983634</v>
+      </c>
+      <c r="W18">
+        <v>0.1793647398843931</v>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y18">
+        <v>0.0786655800327879</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>0.17</v>
+      </c>
+      <c r="B19">
+        <v>0.08557728029337519</v>
+      </c>
+      <c r="C19">
+        <v>5.292905975233774</v>
+      </c>
+      <c r="D19">
+        <v>6.966605975233774</v>
+      </c>
+      <c r="E19">
+        <v>-2.7513</v>
+      </c>
+      <c r="F19">
+        <v>2.0587</v>
+      </c>
+      <c r="G19">
+        <v>0.385</v>
+      </c>
+      <c r="H19">
+        <v>7.3</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0.066</v>
+      </c>
+      <c r="K19">
+        <v>0.03800000000000001</v>
+      </c>
+      <c r="L19">
+        <v>0.028</v>
+      </c>
+      <c r="M19">
+        <v>0.37818319</v>
+      </c>
+      <c r="N19">
+        <v>-0.35018319</v>
+      </c>
+      <c r="O19">
+        <v>-0.105054957</v>
+      </c>
+      <c r="P19">
+        <v>-0.245128233</v>
+      </c>
+      <c r="Q19">
+        <v>-0.207128233</v>
+      </c>
+      <c r="R19">
+        <v>0.2048192771084338</v>
+      </c>
+      <c r="S19">
+        <v>0.06631556856852085</v>
+      </c>
+      <c r="T19">
+        <v>1.207956961197476</v>
+      </c>
+      <c r="U19">
+        <v>0.1837</v>
+      </c>
+      <c r="V19">
+        <v>0.02221145789161067</v>
+      </c>
+      <c r="W19">
+        <v>0.1796197551853111</v>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y19">
+        <v>0.07403819297203562</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>0.18</v>
+      </c>
+      <c r="B20">
+        <v>0.0873212802933752</v>
+      </c>
+      <c r="C20">
+        <v>5.016082296064164</v>
+      </c>
+      <c r="D20">
+        <v>6.810882296064165</v>
+      </c>
+      <c r="E20">
+        <v>-2.6302</v>
+      </c>
+      <c r="F20">
+        <v>2.1798</v>
+      </c>
+      <c r="G20">
+        <v>0.385</v>
+      </c>
+      <c r="H20">
+        <v>7.3</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0.066</v>
+      </c>
+      <c r="K20">
+        <v>0.03800000000000001</v>
+      </c>
+      <c r="L20">
+        <v>0.028</v>
+      </c>
+      <c r="M20">
+        <v>0.40042926</v>
+      </c>
+      <c r="N20">
+        <v>-0.37242926</v>
+      </c>
+      <c r="O20">
+        <v>-0.111728778</v>
+      </c>
+      <c r="P20">
+        <v>-0.260700482</v>
+      </c>
+      <c r="Q20">
+        <v>-0.222700482</v>
+      </c>
+      <c r="R20">
+        <v>0.2195121951219512</v>
+      </c>
+      <c r="S20">
+        <v>0.06701088038033208</v>
+      </c>
+      <c r="T20">
+        <v>1.222688143651103</v>
+      </c>
+      <c r="U20">
+        <v>0.1837</v>
+      </c>
+      <c r="V20">
+        <v>0.02097748800874341</v>
+      </c>
+      <c r="W20">
+        <v>0.1798464354527938</v>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y20">
+        <v>0.06992496002914461</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>0.19</v>
+      </c>
+      <c r="B21">
+        <v>0.08906528029337521</v>
+      </c>
+      <c r="C21">
+        <v>4.746068148446952</v>
+      </c>
+      <c r="D21">
+        <v>6.661968148446952</v>
+      </c>
+      <c r="E21">
+        <v>-2.5091</v>
+      </c>
+      <c r="F21">
+        <v>2.3009</v>
+      </c>
+      <c r="G21">
+        <v>0.385</v>
+      </c>
+      <c r="H21">
+        <v>7.3</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0.066</v>
+      </c>
+      <c r="K21">
+        <v>0.03800000000000001</v>
+      </c>
+      <c r="L21">
+        <v>0.028</v>
+      </c>
+      <c r="M21">
+        <v>0.42267533</v>
+      </c>
+      <c r="N21">
+        <v>-0.39467533</v>
+      </c>
+      <c r="O21">
+        <v>-0.118402599</v>
+      </c>
+      <c r="P21">
+        <v>-0.276272731</v>
+      </c>
+      <c r="Q21">
+        <v>-0.238272731</v>
+      </c>
+      <c r="R21">
+        <v>0.2345679012345679</v>
+      </c>
+      <c r="S21">
+        <v>0.06772336038502753</v>
+      </c>
+      <c r="T21">
+        <v>1.237783059004821</v>
+      </c>
+      <c r="U21">
+        <v>0.1837</v>
+      </c>
+      <c r="V21">
+        <v>0.01987340969249376</v>
+      </c>
+      <c r="W21">
+        <v>0.1800492546394889</v>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y21">
+        <v>0.06624469897497931</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>0.2</v>
+      </c>
+      <c r="B22">
+        <v>0.09080928029337521</v>
+      </c>
+      <c r="C22">
+        <v>4.482426435293881</v>
+      </c>
+      <c r="D22">
+        <v>6.519426435293882</v>
+      </c>
+      <c r="E22">
+        <v>-2.387999999999999</v>
+      </c>
+      <c r="F22">
+        <v>2.422</v>
+      </c>
+      <c r="G22">
+        <v>0.385</v>
+      </c>
+      <c r="H22">
+        <v>7.3</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0.066</v>
+      </c>
+      <c r="K22">
+        <v>0.03800000000000001</v>
+      </c>
+      <c r="L22">
+        <v>0.028</v>
+      </c>
+      <c r="M22">
+        <v>0.4449214</v>
+      </c>
+      <c r="N22">
+        <v>-0.4169214</v>
+      </c>
+      <c r="O22">
+        <v>-0.12507642</v>
+      </c>
+      <c r="P22">
+        <v>-0.29184498</v>
+      </c>
+      <c r="Q22">
+        <v>-0.25384498</v>
+      </c>
+      <c r="R22">
+        <v>0.25</v>
+      </c>
+      <c r="S22">
+        <v>0.06845365238984039</v>
+      </c>
+      <c r="T22">
+        <v>1.253255347242381</v>
+      </c>
+      <c r="U22">
+        <v>0.1837</v>
+      </c>
+      <c r="V22">
+        <v>0.01887973920786907</v>
+      </c>
+      <c r="W22">
+        <v>0.1802317919075145</v>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y22">
+        <v>0.06293246402623032</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>0.21</v>
+      </c>
+      <c r="B23">
+        <v>0.0925532802933752</v>
+      </c>
+      <c r="C23">
+        <v>4.224756684971897</v>
+      </c>
+      <c r="D23">
+        <v>6.382856684971897</v>
+      </c>
+      <c r="E23">
+        <v>-2.2669</v>
+      </c>
+      <c r="F23">
+        <v>2.5431</v>
+      </c>
+      <c r="G23">
+        <v>0.385</v>
+      </c>
+      <c r="H23">
+        <v>7.3</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0.066</v>
+      </c>
+      <c r="K23">
+        <v>0.03800000000000001</v>
+      </c>
+      <c r="L23">
+        <v>0.028</v>
+      </c>
+      <c r="M23">
+        <v>0.46716747</v>
+      </c>
+      <c r="N23">
+        <v>-0.43916747</v>
+      </c>
+      <c r="O23">
+        <v>-0.131750241</v>
+      </c>
+      <c r="P23">
+        <v>-0.307417229</v>
+      </c>
+      <c r="Q23">
+        <v>-0.269417229</v>
+      </c>
+      <c r="R23">
+        <v>0.2658227848101266</v>
+      </c>
+      <c r="S23">
+        <v>0.06920243279983837</v>
+      </c>
+      <c r="T23">
+        <v>1.269119338979626</v>
+      </c>
+      <c r="U23">
+        <v>0.1837</v>
+      </c>
+      <c r="V23">
+        <v>0.01798070400749436</v>
+      </c>
+      <c r="W23">
+        <v>0.1803969446738233</v>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y23">
+        <v>0.05993568002498117</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>0.22</v>
+      </c>
+      <c r="B24">
+        <v>0.0942972802933752</v>
+      </c>
+      <c r="C24">
+        <v>3.972691293842098</v>
+      </c>
+      <c r="D24">
+        <v>6.251891293842098</v>
+      </c>
+      <c r="E24">
+        <v>-2.1458</v>
+      </c>
+      <c r="F24">
+        <v>2.6642</v>
+      </c>
+      <c r="G24">
+        <v>0.385</v>
+      </c>
+      <c r="H24">
+        <v>7.3</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0.066</v>
+      </c>
+      <c r="K24">
+        <v>0.03800000000000001</v>
+      </c>
+      <c r="L24">
+        <v>0.028</v>
+      </c>
+      <c r="M24">
+        <v>0.4894135399999999</v>
+      </c>
+      <c r="N24">
+        <v>-0.4614135399999999</v>
+      </c>
+      <c r="O24">
+        <v>-0.138424062</v>
+      </c>
+      <c r="P24">
+        <v>-0.3229894779999999</v>
+      </c>
+      <c r="Q24">
+        <v>-0.284989478</v>
+      </c>
+      <c r="R24">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="S24">
+        <v>0.0699704127075286</v>
+      </c>
+      <c r="T24">
+        <v>1.285390099735775</v>
+      </c>
+      <c r="U24">
+        <v>0.1837</v>
+      </c>
+      <c r="V24">
+        <v>0.01716339927988098</v>
+      </c>
+      <c r="W24">
+        <v>0.1805470835522859</v>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y24">
+        <v>0.05721133093293662</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>0.23</v>
+      </c>
+      <c r="B25">
+        <v>0.09604128029337522</v>
+      </c>
+      <c r="C25">
+        <v>3.72589222207853</v>
+      </c>
+      <c r="D25">
+        <v>6.12619222207853</v>
+      </c>
+      <c r="E25">
+        <v>-2.0247</v>
+      </c>
+      <c r="F25">
+        <v>2.7853</v>
+      </c>
+      <c r="G25">
+        <v>0.385</v>
+      </c>
+      <c r="H25">
+        <v>7.3</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0.066</v>
+      </c>
+      <c r="K25">
+        <v>0.03800000000000001</v>
+      </c>
+      <c r="L25">
+        <v>0.028</v>
+      </c>
+      <c r="M25">
+        <v>0.5116596099999999</v>
+      </c>
+      <c r="N25">
+        <v>-0.4836596099999999</v>
+      </c>
+      <c r="O25">
+        <v>-0.145097883</v>
+      </c>
+      <c r="P25">
+        <v>-0.338561727</v>
+      </c>
+      <c r="Q25">
+        <v>-0.3005617269999999</v>
+      </c>
+      <c r="R25">
+        <v>0.2987012987012987</v>
+      </c>
+      <c r="S25">
+        <v>0.07075834014528873</v>
+      </c>
+      <c r="T25">
+        <v>1.302083477654422</v>
+      </c>
+      <c r="U25">
+        <v>0.1837</v>
+      </c>
+      <c r="V25">
+        <v>0.0164171645285818</v>
+      </c>
+      <c r="W25">
+        <v>0.1806841668760995</v>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y25">
+        <v>0.05472388176193943</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>0.24</v>
+      </c>
+      <c r="B26">
+        <v>0.09778528029337522</v>
+      </c>
+      <c r="C26">
+        <v>3.484048080229383</v>
+      </c>
+      <c r="D26">
+        <v>6.005448080229383</v>
+      </c>
+      <c r="E26">
+        <v>-1.9036</v>
+      </c>
+      <c r="F26">
+        <v>2.9064</v>
+      </c>
+      <c r="G26">
+        <v>0.385</v>
+      </c>
+      <c r="H26">
+        <v>7.3</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0.066</v>
+      </c>
+      <c r="K26">
+        <v>0.03800000000000001</v>
+      </c>
+      <c r="L26">
+        <v>0.028</v>
+      </c>
+      <c r="M26">
+        <v>0.5339056799999999</v>
+      </c>
+      <c r="N26">
+        <v>-0.5059056799999999</v>
+      </c>
+      <c r="O26">
+        <v>-0.151771704</v>
+      </c>
+      <c r="P26">
+        <v>-0.354133976</v>
+      </c>
+      <c r="Q26">
+        <v>-0.3161339759999999</v>
+      </c>
+      <c r="R26">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="S26">
+        <v>0.07156700251562147</v>
+      </c>
+      <c r="T26">
+        <v>1.31921615499198</v>
+      </c>
+      <c r="U26">
+        <v>0.1837</v>
+      </c>
+      <c r="V26">
+        <v>0.01573311600655756</v>
+      </c>
+      <c r="W26">
+        <v>0.1808098265895954</v>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y26">
+        <v>0.0524437200218586</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>0.25</v>
+      </c>
+      <c r="B27">
+        <v>0.09952928029337518</v>
+      </c>
+      <c r="C27">
+        <v>3.246871553653243</v>
+      </c>
+      <c r="D27">
+        <v>5.889371553653243</v>
+      </c>
+      <c r="E27">
+        <v>-1.7825</v>
+      </c>
+      <c r="F27">
+        <v>3.0275</v>
+      </c>
+      <c r="G27">
+        <v>0.385</v>
+      </c>
+      <c r="H27">
+        <v>7.3</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0.066</v>
+      </c>
+      <c r="K27">
+        <v>0.03800000000000001</v>
+      </c>
+      <c r="L27">
+        <v>0.028</v>
+      </c>
+      <c r="M27">
+        <v>0.5561517499999999</v>
+      </c>
+      <c r="N27">
+        <v>-0.5281517499999999</v>
+      </c>
+      <c r="O27">
+        <v>-0.158445525</v>
+      </c>
+      <c r="P27">
+        <v>-0.3697062249999999</v>
+      </c>
+      <c r="Q27">
+        <v>-0.3317062249999999</v>
+      </c>
+      <c r="R27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="S27">
+        <v>0.07239722921582974</v>
+      </c>
+      <c r="T27">
+        <v>1.336805703725206</v>
+      </c>
+      <c r="U27">
+        <v>0.1837</v>
+      </c>
+      <c r="V27">
+        <v>0.01510379136629526</v>
+      </c>
+      <c r="W27">
+        <v>0.1809254335260116</v>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y27">
+        <v>0.05034597122098428</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>0.26</v>
+      </c>
+      <c r="B28">
+        <v>0.1012732802933752</v>
+      </c>
+      <c r="C28">
+        <v>3.014097119982845</v>
+      </c>
+      <c r="D28">
+        <v>5.777697119982846</v>
+      </c>
+      <c r="E28">
+        <v>-1.6614</v>
+      </c>
+      <c r="F28">
+        <v>3.1486</v>
+      </c>
+      <c r="G28">
+        <v>0.385</v>
+      </c>
+      <c r="H28">
+        <v>7.3</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0.066</v>
+      </c>
+      <c r="K28">
+        <v>0.03800000000000001</v>
+      </c>
+      <c r="L28">
+        <v>0.028</v>
+      </c>
+      <c r="M28">
+        <v>0.5783978200000001</v>
+      </c>
+      <c r="N28">
+        <v>-0.55039782</v>
+      </c>
+      <c r="O28">
+        <v>-0.165119346</v>
+      </c>
+      <c r="P28">
+        <v>-0.385278474</v>
+      </c>
+      <c r="Q28">
+        <v>-0.347278474</v>
+      </c>
+      <c r="R28">
+        <v>0.3513513513513514</v>
+      </c>
+      <c r="S28">
+        <v>0.07324989447550313</v>
+      </c>
+      <c r="T28">
+        <v>1.354870645667439</v>
+      </c>
+      <c r="U28">
+        <v>0.1837</v>
+      </c>
+      <c r="V28">
+        <v>0.01452287631374544</v>
+      </c>
+      <c r="W28">
+        <v>0.181032147621165</v>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y28">
+        <v>0.04840958771248483</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>0.27</v>
+      </c>
+      <c r="B29">
+        <v>0.1030172802933752</v>
+      </c>
+      <c r="C29">
+        <v>2.785479021445341</v>
+      </c>
+      <c r="D29">
+        <v>5.670179021445342</v>
+      </c>
+      <c r="E29">
+        <v>-1.540299999999999</v>
+      </c>
+      <c r="F29">
+        <v>3.2697</v>
+      </c>
+      <c r="G29">
+        <v>0.385</v>
+      </c>
+      <c r="H29">
+        <v>7.3</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0.066</v>
+      </c>
+      <c r="K29">
+        <v>0.03800000000000001</v>
+      </c>
+      <c r="L29">
+        <v>0.028</v>
+      </c>
+      <c r="M29">
+        <v>0.6006438900000001</v>
+      </c>
+      <c r="N29">
+        <v>-0.57264389</v>
+      </c>
+      <c r="O29">
+        <v>-0.171793167</v>
+      </c>
+      <c r="P29">
+        <v>-0.400850723</v>
+      </c>
+      <c r="Q29">
+        <v>-0.362850723</v>
+      </c>
+      <c r="R29">
+        <v>0.3698630136986302</v>
+      </c>
+      <c r="S29">
+        <v>0.07412592042722235</v>
+      </c>
+      <c r="T29">
+        <v>1.373430517525897</v>
+      </c>
+      <c r="U29">
+        <v>0.1837</v>
+      </c>
+      <c r="V29">
+        <v>0.01398499200582894</v>
+      </c>
+      <c r="W29">
+        <v>0.1811309569685292</v>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y29">
+        <v>0.04661664001942989</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>0.28</v>
+      </c>
+      <c r="B30">
+        <v>0.1047612802933752</v>
+      </c>
+      <c r="C30">
+        <v>2.560789459446906</v>
+      </c>
+      <c r="D30">
+        <v>5.566589459446906</v>
+      </c>
+      <c r="E30">
+        <v>-1.4192</v>
+      </c>
+      <c r="F30">
+        <v>3.3908</v>
+      </c>
+      <c r="G30">
+        <v>0.385</v>
+      </c>
+      <c r="H30">
+        <v>7.3</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0.066</v>
+      </c>
+      <c r="K30">
+        <v>0.03800000000000001</v>
+      </c>
+      <c r="L30">
+        <v>0.028</v>
+      </c>
+      <c r="M30">
+        <v>0.62288996</v>
+      </c>
+      <c r="N30">
+        <v>-0.5948899599999999</v>
+      </c>
+      <c r="O30">
+        <v>-0.178466988</v>
+      </c>
+      <c r="P30">
+        <v>-0.416422972</v>
+      </c>
+      <c r="Q30">
+        <v>-0.378422972</v>
+      </c>
+      <c r="R30">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="S30">
+        <v>0.07502628043315598</v>
+      </c>
+      <c r="T30">
+        <v>1.392505941380423</v>
+      </c>
+      <c r="U30">
+        <v>0.1837</v>
+      </c>
+      <c r="V30">
+        <v>0.01348552800562077</v>
+      </c>
+      <c r="W30">
+        <v>0.1812227085053675</v>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y30">
+        <v>0.04495176001873591</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>0.29</v>
+      </c>
+      <c r="B31">
+        <v>0.1065052802933752</v>
+      </c>
+      <c r="C31">
+        <v>2.339816983507581</v>
+      </c>
+      <c r="D31">
+        <v>5.466716983507581</v>
+      </c>
+      <c r="E31">
+        <v>-1.2981</v>
+      </c>
+      <c r="F31">
+        <v>3.5119</v>
+      </c>
+      <c r="G31">
+        <v>0.385</v>
+      </c>
+      <c r="H31">
+        <v>7.3</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0.066</v>
+      </c>
+      <c r="K31">
+        <v>0.03800000000000001</v>
+      </c>
+      <c r="L31">
+        <v>0.028</v>
+      </c>
+      <c r="M31">
+        <v>0.64513603</v>
+      </c>
+      <c r="N31">
+        <v>-0.6171360299999999</v>
+      </c>
+      <c r="O31">
+        <v>-0.185140809</v>
+      </c>
+      <c r="P31">
+        <v>-0.431995221</v>
+      </c>
+      <c r="Q31">
+        <v>-0.393995221</v>
+      </c>
+      <c r="R31">
+        <v>0.4084507042253521</v>
+      </c>
+      <c r="S31">
+        <v>0.07595200269277791</v>
+      </c>
+      <c r="T31">
+        <v>1.412118701118176</v>
+      </c>
+      <c r="U31">
+        <v>0.1837</v>
+      </c>
+      <c r="V31">
+        <v>0.0130205097985304</v>
+      </c>
+      <c r="W31">
+        <v>0.18130813235001</v>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y31">
+        <v>0.04340169932843474</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>0.3</v>
+      </c>
+      <c r="B32">
+        <v>0.1082492802933752</v>
+      </c>
+      <c r="C32">
+        <v>2.122365050568101</v>
+      </c>
+      <c r="D32">
+        <v>5.3703650505681</v>
+      </c>
+      <c r="E32">
+        <v>-1.177</v>
+      </c>
+      <c r="F32">
+        <v>3.633</v>
+      </c>
+      <c r="G32">
+        <v>0.385</v>
+      </c>
+      <c r="H32">
+        <v>7.3</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0.066</v>
+      </c>
+      <c r="K32">
+        <v>0.03800000000000001</v>
+      </c>
+      <c r="L32">
+        <v>0.028</v>
+      </c>
+      <c r="M32">
+        <v>0.6673821</v>
+      </c>
+      <c r="N32">
+        <v>-0.6393821</v>
+      </c>
+      <c r="O32">
+        <v>-0.19181463</v>
+      </c>
+      <c r="P32">
+        <v>-0.44756747</v>
+      </c>
+      <c r="Q32">
+        <v>-0.4095674699999999</v>
+      </c>
+      <c r="R32">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="S32">
+        <v>0.0769041741598176</v>
+      </c>
+      <c r="T32">
+        <v>1.432291825419864</v>
+      </c>
+      <c r="U32">
+        <v>0.1837</v>
+      </c>
+      <c r="V32">
+        <v>0.01258649280524605</v>
+      </c>
+      <c r="W32">
+        <v>0.1813878612716763</v>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y32">
+        <v>0.04195497601748688</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>0.31</v>
+      </c>
+      <c r="B33">
+        <v>0.1099932802933752</v>
+      </c>
+      <c r="C33">
+        <v>1.908250734012887</v>
+      </c>
+      <c r="D33">
+        <v>5.277350734012887</v>
+      </c>
+      <c r="E33">
+        <v>-1.0559</v>
+      </c>
+      <c r="F33">
+        <v>3.7541</v>
+      </c>
+      <c r="G33">
+        <v>0.385</v>
+      </c>
+      <c r="H33">
+        <v>7.3</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0.066</v>
+      </c>
+      <c r="K33">
+        <v>0.03800000000000001</v>
+      </c>
+      <c r="L33">
+        <v>0.028</v>
+      </c>
+      <c r="M33">
+        <v>0.68962817</v>
+      </c>
+      <c r="N33">
+        <v>-0.66162817</v>
+      </c>
+      <c r="O33">
+        <v>-0.198488451</v>
+      </c>
+      <c r="P33">
+        <v>-0.4631397189999999</v>
+      </c>
+      <c r="Q33">
+        <v>-0.4251397189999999</v>
+      </c>
+      <c r="R33">
+        <v>0.4492753623188406</v>
+      </c>
+      <c r="S33">
+        <v>0.07788394479981495</v>
+      </c>
+      <c r="T33">
+        <v>1.453049677962181</v>
+      </c>
+      <c r="U33">
+        <v>0.1837</v>
+      </c>
+      <c r="V33">
+        <v>0.01218047690830263</v>
+      </c>
+      <c r="W33">
+        <v>0.1814624463919448</v>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y33">
+        <v>0.04060158969434213</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>0.32</v>
+      </c>
+      <c r="B34">
+        <v>0.1117372802933752</v>
+      </c>
+      <c r="C34">
+        <v>1.697303564566767</v>
+      </c>
+      <c r="D34">
+        <v>5.187503564566767</v>
+      </c>
+      <c r="E34">
+        <v>-0.9347999999999996</v>
+      </c>
+      <c r="F34">
+        <v>3.8752</v>
+      </c>
+      <c r="G34">
+        <v>0.385</v>
+      </c>
+      <c r="H34">
+        <v>7.3</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0.066</v>
+      </c>
+      <c r="K34">
+        <v>0.03800000000000001</v>
+      </c>
+      <c r="L34">
+        <v>0.028</v>
+      </c>
+      <c r="M34">
+        <v>0.71187424</v>
+      </c>
+      <c r="N34">
+        <v>-0.68387424</v>
+      </c>
+      <c r="O34">
+        <v>-0.205162272</v>
+      </c>
+      <c r="P34">
+        <v>-0.478711968</v>
+      </c>
+      <c r="Q34">
+        <v>-0.440711968</v>
+      </c>
+      <c r="R34">
+        <v>0.4705882352941177</v>
+      </c>
+      <c r="S34">
+        <v>0.07889253222334164</v>
+      </c>
+      <c r="T34">
+        <v>1.474418055579272</v>
+      </c>
+      <c r="U34">
+        <v>0.1837</v>
+      </c>
+      <c r="V34">
+        <v>0.01179983700491817</v>
+      </c>
+      <c r="W34">
+        <v>0.1815323699421965</v>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y34">
+        <v>0.03933279001639389</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>0.33</v>
+      </c>
+      <c r="B35">
+        <v>0.1134812802933752</v>
+      </c>
+      <c r="C35">
+        <v>1.489364487612366</v>
+      </c>
+      <c r="D35">
+        <v>5.100664487612367</v>
+      </c>
+      <c r="E35">
+        <v>-0.8136999999999994</v>
+      </c>
+      <c r="F35">
+        <v>3.9963</v>
+      </c>
+      <c r="G35">
+        <v>0.385</v>
+      </c>
+      <c r="H35">
+        <v>7.3</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0.066</v>
+      </c>
+      <c r="K35">
+        <v>0.03800000000000001</v>
+      </c>
+      <c r="L35">
+        <v>0.028</v>
+      </c>
+      <c r="M35">
+        <v>0.73412031</v>
+      </c>
+      <c r="N35">
+        <v>-0.70612031</v>
+      </c>
+      <c r="O35">
+        <v>-0.211836093</v>
+      </c>
+      <c r="P35">
+        <v>-0.494284217</v>
+      </c>
+      <c r="Q35">
+        <v>-0.456284217</v>
+      </c>
+      <c r="R35">
+        <v>0.4925373134328359</v>
+      </c>
+      <c r="S35">
+        <v>0.07993122673413779</v>
+      </c>
+      <c r="T35">
+        <v>1.496424295214784</v>
+      </c>
+      <c r="U35">
+        <v>0.1837</v>
+      </c>
+      <c r="V35">
+        <v>0.01144226618658732</v>
+      </c>
+      <c r="W35">
+        <v>0.1815980557015239</v>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y35">
+        <v>0.03814088728862441</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>0.34</v>
+      </c>
+      <c r="B36">
+        <v>0.1152252802933752</v>
+      </c>
+      <c r="C36">
+        <v>1.284284923510591</v>
+      </c>
+      <c r="D36">
+        <v>5.016684923510591</v>
+      </c>
+      <c r="E36">
+        <v>-0.6925999999999997</v>
+      </c>
+      <c r="F36">
+        <v>4.1174</v>
+      </c>
+      <c r="G36">
+        <v>0.385</v>
+      </c>
+      <c r="H36">
+        <v>7.3</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0.066</v>
+      </c>
+      <c r="K36">
+        <v>0.03800000000000001</v>
+      </c>
+      <c r="L36">
+        <v>0.028</v>
+      </c>
+      <c r="M36">
+        <v>0.75636638</v>
+      </c>
+      <c r="N36">
+        <v>-0.72836638</v>
+      </c>
+      <c r="O36">
+        <v>-0.218509914</v>
+      </c>
+      <c r="P36">
+        <v>-0.509856466</v>
+      </c>
+      <c r="Q36">
+        <v>-0.471856466</v>
+      </c>
+      <c r="R36">
+        <v>0.5151515151515152</v>
+      </c>
+      <c r="S36">
+        <v>0.08100139683617018</v>
+      </c>
+      <c r="T36">
+        <v>1.519097390596826</v>
+      </c>
+      <c r="U36">
+        <v>0.1837</v>
+      </c>
+      <c r="V36">
+        <v>0.01110572894580534</v>
+      </c>
+      <c r="W36">
+        <v>0.1816598775926556</v>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y36">
+        <v>0.03701909648601787</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>0.35</v>
+      </c>
+      <c r="B37">
+        <v>0.1169692802933752</v>
+      </c>
+      <c r="C37">
+        <v>1.081925919245279</v>
+      </c>
+      <c r="D37">
+        <v>4.935425919245279</v>
+      </c>
+      <c r="E37">
+        <v>-0.5714999999999995</v>
+      </c>
+      <c r="F37">
+        <v>4.2385</v>
+      </c>
+      <c r="G37">
+        <v>0.385</v>
+      </c>
+      <c r="H37">
+        <v>7.3</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0.066</v>
+      </c>
+      <c r="K37">
+        <v>0.03800000000000001</v>
+      </c>
+      <c r="L37">
+        <v>0.028</v>
+      </c>
+      <c r="M37">
+        <v>0.77861245</v>
+      </c>
+      <c r="N37">
+        <v>-0.75061245</v>
+      </c>
+      <c r="O37">
+        <v>-0.225183735</v>
+      </c>
+      <c r="P37">
+        <v>-0.525428715</v>
+      </c>
+      <c r="Q37">
+        <v>-0.487428715</v>
+      </c>
+      <c r="R37">
+        <v>0.5384615384615385</v>
+      </c>
+      <c r="S37">
+        <v>0.08210449524903432</v>
+      </c>
+      <c r="T37">
+        <v>1.542468119682931</v>
+      </c>
+      <c r="U37">
+        <v>0.1837</v>
+      </c>
+      <c r="V37">
+        <v>0.01078842240449661</v>
+      </c>
+      <c r="W37">
+        <v>0.181718166804294</v>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y37">
+        <v>0.0359614080149887</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>0.36</v>
+      </c>
+      <c r="B38">
+        <v>0.1187132802933752</v>
+      </c>
+      <c r="C38">
+        <v>0.8821573812023269</v>
+      </c>
+      <c r="D38">
+        <v>4.856757381202327</v>
+      </c>
+      <c r="E38">
+        <v>-0.4504000000000001</v>
+      </c>
+      <c r="F38">
+        <v>4.359599999999999</v>
+      </c>
+      <c r="G38">
+        <v>0.385</v>
+      </c>
+      <c r="H38">
+        <v>7.3</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0.066</v>
+      </c>
+      <c r="K38">
+        <v>0.03800000000000001</v>
+      </c>
+      <c r="L38">
+        <v>0.028</v>
+      </c>
+      <c r="M38">
+        <v>0.8008585199999999</v>
+      </c>
+      <c r="N38">
+        <v>-0.7728585199999999</v>
+      </c>
+      <c r="O38">
+        <v>-0.231857556</v>
+      </c>
+      <c r="P38">
+        <v>-0.541000964</v>
+      </c>
+      <c r="Q38">
+        <v>-0.5030009639999999</v>
+      </c>
+      <c r="R38">
+        <v>0.5625</v>
+      </c>
+      <c r="S38">
+        <v>0.08324206548730048</v>
+      </c>
+      <c r="T38">
+        <v>1.566569184052976</v>
+      </c>
+      <c r="U38">
+        <v>0.1837</v>
+      </c>
+      <c r="V38">
+        <v>0.01048874400437171</v>
+      </c>
+      <c r="W38">
+        <v>0.1817732177263969</v>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y38">
+        <v>0.03496248001457236</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>0.37</v>
+      </c>
+      <c r="B39">
+        <v>0.1204572802933752</v>
+      </c>
+      <c r="C39">
+        <v>0.6848573801725983</v>
+      </c>
+      <c r="D39">
+        <v>4.780557380172598</v>
+      </c>
+      <c r="E39">
+        <v>-0.3292999999999999</v>
+      </c>
+      <c r="F39">
+        <v>4.4807</v>
+      </c>
+      <c r="G39">
+        <v>0.385</v>
+      </c>
+      <c r="H39">
+        <v>7.3</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0.066</v>
+      </c>
+      <c r="K39">
+        <v>0.03800000000000001</v>
+      </c>
+      <c r="L39">
+        <v>0.028</v>
+      </c>
+      <c r="M39">
+        <v>0.8231045899999999</v>
+      </c>
+      <c r="N39">
+        <v>-0.7951045899999999</v>
+      </c>
+      <c r="O39">
+        <v>-0.238531377</v>
+      </c>
+      <c r="P39">
+        <v>-0.556573213</v>
+      </c>
+      <c r="Q39">
+        <v>-0.5185732129999999</v>
+      </c>
+      <c r="R39">
+        <v>0.5873015873015873</v>
+      </c>
+      <c r="S39">
+        <v>0.08441574906646399</v>
+      </c>
+      <c r="T39">
+        <v>1.591435361577627</v>
+      </c>
+      <c r="U39">
+        <v>0.1837</v>
+      </c>
+      <c r="V39">
+        <v>0.01020526443668599</v>
+      </c>
+      <c r="W39">
+        <v>0.1818252929229808</v>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y39">
+        <v>0.03401754812228663</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>0.38</v>
+      </c>
+      <c r="B40">
+        <v>0.1222012802933752</v>
+      </c>
+      <c r="C40">
+        <v>0.4899115207690876</v>
+      </c>
+      <c r="D40">
+        <v>4.706711520769088</v>
+      </c>
+      <c r="E40">
+        <v>-0.2081999999999997</v>
+      </c>
+      <c r="F40">
+        <v>4.6018</v>
+      </c>
+      <c r="G40">
+        <v>0.385</v>
+      </c>
+      <c r="H40">
+        <v>7.3</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0.066</v>
+      </c>
+      <c r="K40">
+        <v>0.03800000000000001</v>
+      </c>
+      <c r="L40">
+        <v>0.028</v>
+      </c>
+      <c r="M40">
+        <v>0.84535066</v>
+      </c>
+      <c r="N40">
+        <v>-0.81735066</v>
+      </c>
+      <c r="O40">
+        <v>-0.245205198</v>
+      </c>
+      <c r="P40">
+        <v>-0.572145462</v>
+      </c>
+      <c r="Q40">
+        <v>-0.534145462</v>
+      </c>
+      <c r="R40">
+        <v>0.6129032258064516</v>
+      </c>
+      <c r="S40">
+        <v>0.08562729340624566</v>
+      </c>
+      <c r="T40">
+        <v>1.617103673861137</v>
+      </c>
+      <c r="U40">
+        <v>0.1837</v>
+      </c>
+      <c r="V40">
+        <v>0.009936704846246879</v>
+      </c>
+      <c r="W40">
+        <v>0.1818746273197445</v>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y40">
+        <v>0.0331223494874896</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>0.39</v>
+      </c>
+      <c r="B41">
+        <v>0.1239452802933752</v>
+      </c>
+      <c r="C41">
+        <v>0.2972123683991335</v>
+      </c>
+      <c r="D41">
+        <v>4.635112368399134</v>
+      </c>
+      <c r="E41">
+        <v>-0.08709999999999951</v>
+      </c>
+      <c r="F41">
+        <v>4.7229</v>
+      </c>
+      <c r="G41">
+        <v>0.385</v>
+      </c>
+      <c r="H41">
+        <v>7.3</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0.066</v>
+      </c>
+      <c r="K41">
+        <v>0.03800000000000001</v>
+      </c>
+      <c r="L41">
+        <v>0.028</v>
+      </c>
+      <c r="M41">
+        <v>0.86759673</v>
+      </c>
+      <c r="N41">
+        <v>-0.83959673</v>
+      </c>
+      <c r="O41">
+        <v>-0.251879019</v>
+      </c>
+      <c r="P41">
+        <v>-0.587717711</v>
+      </c>
+      <c r="Q41">
+        <v>-0.549717711</v>
+      </c>
+      <c r="R41">
+        <v>0.639344262295082</v>
+      </c>
+      <c r="S41">
+        <v>0.08687856051126609</v>
+      </c>
+      <c r="T41">
+        <v>1.643613570153943</v>
+      </c>
+      <c r="U41">
+        <v>0.1837</v>
+      </c>
+      <c r="V41">
+        <v>0.009681917542496961</v>
+      </c>
+      <c r="W41">
+        <v>0.1819214317474433</v>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y41">
+        <v>0.03227305847498985</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>0.4</v>
+      </c>
+      <c r="B42">
+        <v>0.1256892802933752</v>
+      </c>
+      <c r="C42">
+        <v>0.1066589277548395</v>
+      </c>
+      <c r="D42">
+        <v>4.56565892775484</v>
+      </c>
+      <c r="E42">
+        <v>0.0340000000000007</v>
+      </c>
+      <c r="F42">
+        <v>4.844</v>
+      </c>
+      <c r="G42">
+        <v>0.385</v>
+      </c>
+      <c r="H42">
+        <v>7.3</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0.066</v>
+      </c>
+      <c r="K42">
+        <v>0.03800000000000001</v>
+      </c>
+      <c r="L42">
+        <v>0.028</v>
+      </c>
+      <c r="M42">
+        <v>0.8898428</v>
+      </c>
+      <c r="N42">
+        <v>-0.8618428</v>
+      </c>
+      <c r="O42">
+        <v>-0.25855284</v>
+      </c>
+      <c r="P42">
+        <v>-0.60328996</v>
+      </c>
+      <c r="Q42">
+        <v>-0.56528996</v>
+      </c>
+      <c r="R42">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="S42">
+        <v>0.08817153651978719</v>
+      </c>
+      <c r="T42">
+        <v>1.671007129656508</v>
+      </c>
+      <c r="U42">
+        <v>0.1837</v>
+      </c>
+      <c r="V42">
+        <v>0.009439869603934536</v>
+      </c>
+      <c r="W42">
+        <v>0.1819658959537572</v>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y42">
+        <v>0.03146623201311516</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>0.41</v>
+      </c>
+      <c r="B43">
+        <v>0.1274332802933752</v>
+      </c>
+      <c r="C43">
+        <v>-0.08184383250230454</v>
+      </c>
+      <c r="D43">
+        <v>4.498256167497696</v>
+      </c>
+      <c r="E43">
+        <v>0.1551000000000009</v>
+      </c>
+      <c r="F43">
+        <v>4.965100000000001</v>
+      </c>
+      <c r="G43">
+        <v>0.385</v>
+      </c>
+      <c r="H43">
+        <v>7.3</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0.066</v>
+      </c>
+      <c r="K43">
+        <v>0.03800000000000001</v>
+      </c>
+      <c r="L43">
+        <v>0.028</v>
+      </c>
+      <c r="M43">
+        <v>0.9120888700000001</v>
+      </c>
+      <c r="N43">
+        <v>-0.88408887</v>
+      </c>
+      <c r="O43">
+        <v>-0.265226661</v>
+      </c>
+      <c r="P43">
+        <v>-0.618862209</v>
+      </c>
+      <c r="Q43">
+        <v>-0.580862209</v>
+      </c>
+      <c r="R43">
+        <v>0.6949152542372882</v>
+      </c>
+      <c r="S43">
+        <v>0.08950834222351239</v>
+      </c>
+      <c r="T43">
+        <v>1.699329284396449</v>
+      </c>
+      <c r="U43">
+        <v>0.1837</v>
+      </c>
+      <c r="V43">
+        <v>0.009209628881887352</v>
+      </c>
+      <c r="W43">
+        <v>0.1820081911743973</v>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y43">
+        <v>0.03069876293962459</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>0.42</v>
+      </c>
+      <c r="B44">
+        <v>0.1291772802933752</v>
+      </c>
+      <c r="C44">
+        <v>-0.2683854135668495</v>
+      </c>
+      <c r="D44">
+        <v>4.432814586433151</v>
+      </c>
+      <c r="E44">
+        <v>0.2762000000000002</v>
+      </c>
+      <c r="F44">
+        <v>5.0862</v>
+      </c>
+      <c r="G44">
+        <v>0.385</v>
+      </c>
+      <c r="H44">
+        <v>7.3</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0.066</v>
+      </c>
+      <c r="K44">
+        <v>0.03800000000000001</v>
+      </c>
+      <c r="L44">
+        <v>0.028</v>
+      </c>
+      <c r="M44">
+        <v>0.9343349399999999</v>
+      </c>
+      <c r="N44">
+        <v>-0.9063349399999999</v>
+      </c>
+      <c r="O44">
+        <v>-0.2719004819999999</v>
+      </c>
+      <c r="P44">
+        <v>-0.634434458</v>
+      </c>
+      <c r="Q44">
+        <v>-0.5964344579999999</v>
+      </c>
+      <c r="R44">
+        <v>0.7241379310344827</v>
+      </c>
+      <c r="S44">
+        <v>0.09089124467564191</v>
+      </c>
+      <c r="T44">
+        <v>1.728628065161905</v>
+      </c>
+      <c r="U44">
+        <v>0.1837</v>
+      </c>
+      <c r="V44">
+        <v>0.008990352003747178</v>
+      </c>
+      <c r="W44">
+        <v>0.1820484723369117</v>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y44">
+        <v>0.02996784001249064</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>0.43</v>
+      </c>
+      <c r="B45">
+        <v>0.1309212802933752</v>
+      </c>
+      <c r="C45">
+        <v>-0.4530501829895277</v>
+      </c>
+      <c r="D45">
+        <v>4.369249817010473</v>
+      </c>
+      <c r="E45">
+        <v>0.3973000000000004</v>
+      </c>
+      <c r="F45">
+        <v>5.2073</v>
+      </c>
+      <c r="G45">
+        <v>0.385</v>
+      </c>
+      <c r="H45">
+        <v>7.3</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0.066</v>
+      </c>
+      <c r="K45">
+        <v>0.03800000000000001</v>
+      </c>
+      <c r="L45">
+        <v>0.028</v>
+      </c>
+      <c r="M45">
+        <v>0.9565810100000001</v>
+      </c>
+      <c r="N45">
+        <v>-0.92858101</v>
+      </c>
+      <c r="O45">
+        <v>-0.278574303</v>
+      </c>
+      <c r="P45">
+        <v>-0.650006707</v>
+      </c>
+      <c r="Q45">
+        <v>-0.6120067069999999</v>
+      </c>
+      <c r="R45">
+        <v>0.7543859649122806</v>
+      </c>
+      <c r="S45">
+        <v>0.0923226700208286</v>
+      </c>
+      <c r="T45">
+        <v>1.75895487332264</v>
+      </c>
+      <c r="U45">
+        <v>0.1837</v>
+      </c>
+      <c r="V45">
+        <v>0.008781274050171661</v>
+      </c>
+      <c r="W45">
+        <v>0.1820868799569835</v>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y45">
+        <v>0.0292709135005722</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>0.44</v>
+      </c>
+      <c r="B46">
+        <v>0.1326652802933752</v>
+      </c>
+      <c r="C46">
+        <v>-0.6359177375457623</v>
+      </c>
+      <c r="D46">
+        <v>4.307482262454237</v>
+      </c>
+      <c r="E46">
+        <v>0.5183999999999997</v>
+      </c>
+      <c r="F46">
+        <v>5.328399999999999</v>
+      </c>
+      <c r="G46">
+        <v>0.385</v>
+      </c>
+      <c r="H46">
+        <v>7.3</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0.066</v>
+      </c>
+      <c r="K46">
+        <v>0.03800000000000001</v>
+      </c>
+      <c r="L46">
+        <v>0.028</v>
+      </c>
+      <c r="M46">
+        <v>0.9788270799999998</v>
+      </c>
+      <c r="N46">
+        <v>-0.9508270799999998</v>
+      </c>
+      <c r="O46">
+        <v>-0.2852481239999999</v>
+      </c>
+      <c r="P46">
+        <v>-0.6655789559999998</v>
+      </c>
+      <c r="Q46">
+        <v>-0.6275789559999998</v>
+      </c>
+      <c r="R46">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="S46">
+        <v>0.09380521769977197</v>
+      </c>
+      <c r="T46">
+        <v>1.79036478177483</v>
+      </c>
+      <c r="U46">
+        <v>0.1837</v>
+      </c>
+      <c r="V46">
+        <v>0.008581699639940489</v>
+      </c>
+      <c r="W46">
+        <v>0.1821235417761429</v>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y46">
+        <v>0.02860566546646837</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>0.45</v>
+      </c>
+      <c r="B47">
+        <v>0.1344092802933752</v>
+      </c>
+      <c r="C47">
+        <v>-0.8170632357542429</v>
+      </c>
+      <c r="D47">
+        <v>4.247436764245757</v>
+      </c>
+      <c r="E47">
+        <v>0.6395</v>
+      </c>
+      <c r="F47">
+        <v>5.4495</v>
+      </c>
+      <c r="G47">
+        <v>0.385</v>
+      </c>
+      <c r="H47">
+        <v>7.3</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0.066</v>
+      </c>
+      <c r="K47">
+        <v>0.03800000000000001</v>
+      </c>
+      <c r="L47">
+        <v>0.028</v>
+      </c>
+      <c r="M47">
+        <v>1.00107315</v>
+      </c>
+      <c r="N47">
+        <v>-0.9730731499999998</v>
+      </c>
+      <c r="O47">
+        <v>-0.291921945</v>
+      </c>
+      <c r="P47">
+        <v>-0.6811512049999999</v>
+      </c>
+      <c r="Q47">
+        <v>-0.6431512049999999</v>
+      </c>
+      <c r="R47">
+        <v>0.8181818181818181</v>
+      </c>
+      <c r="S47">
+        <v>0.09534167620340421</v>
+      </c>
+      <c r="T47">
+        <v>1.822916868716191</v>
+      </c>
+      <c r="U47">
+        <v>0.1837</v>
+      </c>
+      <c r="V47">
+        <v>0.008390995203497367</v>
+      </c>
+      <c r="W47">
+        <v>0.1821585741811175</v>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y47">
+        <v>0.02796998401165796</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>0.46</v>
+      </c>
+      <c r="B48">
+        <v>0.1361532802933752</v>
+      </c>
+      <c r="C48">
+        <v>-0.9965577029663892</v>
+      </c>
+      <c r="D48">
+        <v>4.189042297033611</v>
+      </c>
+      <c r="E48">
+        <v>0.7606000000000002</v>
+      </c>
+      <c r="F48">
+        <v>5.5706</v>
+      </c>
+      <c r="G48">
+        <v>0.385</v>
+      </c>
+      <c r="H48">
+        <v>7.3</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0.066</v>
+      </c>
+      <c r="K48">
+        <v>0.03800000000000001</v>
+      </c>
+      <c r="L48">
+        <v>0.028</v>
+      </c>
+      <c r="M48">
+        <v>1.02331922</v>
+      </c>
+      <c r="N48">
+        <v>-0.9953192199999998</v>
+      </c>
+      <c r="O48">
+        <v>-0.2985957659999999</v>
+      </c>
+      <c r="P48">
+        <v>-0.6967234539999999</v>
+      </c>
+      <c r="Q48">
+        <v>-0.6587234539999999</v>
+      </c>
+      <c r="R48">
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="S48">
+        <v>0.09693504057754132</v>
+      </c>
+      <c r="T48">
+        <v>1.856674588507231</v>
+      </c>
+      <c r="U48">
+        <v>0.1837</v>
+      </c>
+      <c r="V48">
+        <v>0.008208582264290902</v>
+      </c>
+      <c r="W48">
+        <v>0.1821920834380498</v>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y48">
+        <v>0.02736194088096966</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>0.47</v>
+      </c>
+      <c r="B49">
+        <v>0.1378972802933752</v>
+      </c>
+      <c r="C49">
+        <v>-1.174468311630584</v>
+      </c>
+      <c r="D49">
+        <v>4.132231688369417</v>
+      </c>
+      <c r="E49">
+        <v>0.8817000000000004</v>
+      </c>
+      <c r="F49">
+        <v>5.6917</v>
+      </c>
+      <c r="G49">
+        <v>0.385</v>
+      </c>
+      <c r="H49">
+        <v>7.3</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0.066</v>
+      </c>
+      <c r="K49">
+        <v>0.03800000000000001</v>
+      </c>
+      <c r="L49">
+        <v>0.028</v>
+      </c>
+      <c r="M49">
+        <v>1.04556529</v>
+      </c>
+      <c r="N49">
+        <v>-1.01756529</v>
+      </c>
+      <c r="O49">
+        <v>-0.305269587</v>
+      </c>
+      <c r="P49">
+        <v>-0.7122957030000001</v>
+      </c>
+      <c r="Q49">
+        <v>-0.6742957030000001</v>
+      </c>
+      <c r="R49">
+        <v>0.8867924528301887</v>
+      </c>
+      <c r="S49">
+        <v>0.09858853190919305</v>
+      </c>
+      <c r="T49">
+        <v>1.891706184516802</v>
+      </c>
+      <c r="U49">
+        <v>0.1837</v>
+      </c>
+      <c r="V49">
+        <v>0.008033931577816626</v>
+      </c>
+      <c r="W49">
+        <v>0.1822241667691551</v>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y49">
+        <v>0.02677977192605541</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>0.48</v>
+      </c>
+      <c r="B50">
+        <v>0.1396412802933752</v>
+      </c>
+      <c r="C50">
+        <v>-1.350858639056365</v>
+      </c>
+      <c r="D50">
+        <v>4.076941360943635</v>
+      </c>
+      <c r="E50">
+        <v>1.0028</v>
+      </c>
+      <c r="F50">
+        <v>5.812799999999999</v>
+      </c>
+      <c r="G50">
+        <v>0.385</v>
+      </c>
+      <c r="H50">
+        <v>7.3</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0.066</v>
+      </c>
+      <c r="K50">
+        <v>0.03800000000000001</v>
+      </c>
+      <c r="L50">
+        <v>0.028</v>
+      </c>
+      <c r="M50">
+        <v>1.06781136</v>
+      </c>
+      <c r="N50">
+        <v>-1.03981136</v>
+      </c>
+      <c r="O50">
+        <v>-0.3119434079999999</v>
+      </c>
+      <c r="P50">
+        <v>-0.727867952</v>
+      </c>
+      <c r="Q50">
+        <v>-0.689867952</v>
+      </c>
+      <c r="R50">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="S50">
+        <v>0.1003056190612929</v>
+      </c>
+      <c r="T50">
+        <v>1.928085149603663</v>
+      </c>
+      <c r="U50">
+        <v>0.1837</v>
+      </c>
+      <c r="V50">
+        <v>0.007866558003278781</v>
+      </c>
+      <c r="W50">
+        <v>0.1822549132947977</v>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y50">
+        <v>0.0262218600109293</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>0.49</v>
+      </c>
+      <c r="B51">
+        <v>0.1413852802933752</v>
+      </c>
+      <c r="C51">
+        <v>-1.525788904758139</v>
+      </c>
+      <c r="D51">
+        <v>4.023111095241861</v>
+      </c>
+      <c r="E51">
+        <v>1.1239</v>
+      </c>
+      <c r="F51">
+        <v>5.9339</v>
+      </c>
+      <c r="G51">
+        <v>0.385</v>
+      </c>
+      <c r="H51">
+        <v>7.3</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0.066</v>
+      </c>
+      <c r="K51">
+        <v>0.03800000000000001</v>
+      </c>
+      <c r="L51">
+        <v>0.028</v>
+      </c>
+      <c r="M51">
+        <v>1.09005743</v>
+      </c>
+      <c r="N51">
+        <v>-1.06205743</v>
+      </c>
+      <c r="O51">
+        <v>-0.3186172289999999</v>
+      </c>
+      <c r="P51">
+        <v>-0.7434402009999999</v>
+      </c>
+      <c r="Q51">
+        <v>-0.7054402009999998</v>
+      </c>
+      <c r="R51">
+        <v>0.9607843137254901</v>
+      </c>
+      <c r="S51">
+        <v>0.1020900429644555</v>
+      </c>
+      <c r="T51">
+        <v>1.965890740772362</v>
+      </c>
+      <c r="U51">
+        <v>0.1837</v>
+      </c>
+      <c r="V51">
+        <v>0.007706016003211867</v>
+      </c>
+      <c r="W51">
+        <v>0.18228440486021</v>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y51">
+        <v>0.02568672001070627</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>0.5</v>
+      </c>
+      <c r="B52">
+        <v>0.1431292802933752</v>
+      </c>
+      <c r="C52">
+        <v>-1.699316189241183</v>
+      </c>
+      <c r="D52">
+        <v>3.970683810758817</v>
+      </c>
+      <c r="E52">
+        <v>1.245</v>
+      </c>
+      <c r="F52">
+        <v>6.055</v>
+      </c>
+      <c r="G52">
+        <v>0.385</v>
+      </c>
+      <c r="H52">
+        <v>7.3</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0.066</v>
+      </c>
+      <c r="K52">
+        <v>0.03800000000000001</v>
+      </c>
+      <c r="L52">
+        <v>0.028</v>
+      </c>
+      <c r="M52">
+        <v>1.1123035</v>
+      </c>
+      <c r="N52">
+        <v>-1.0843035</v>
+      </c>
+      <c r="O52">
+        <v>-0.32529105</v>
+      </c>
+      <c r="P52">
+        <v>-0.7590124499999999</v>
+      </c>
+      <c r="Q52">
+        <v>-0.7210124499999999</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>0.1039458438237446</v>
+      </c>
+      <c r="T52">
+        <v>2.00520855558781</v>
+      </c>
+      <c r="U52">
+        <v>0.1837</v>
+      </c>
+      <c r="V52">
+        <v>0.00755189568314763</v>
+      </c>
+      <c r="W52">
+        <v>0.1823127167630058</v>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y52">
+        <v>0.02517298561049208</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>0.51</v>
+      </c>
+      <c r="B53">
+        <v>0.1448732802933752</v>
+      </c>
+      <c r="C53">
+        <v>-1.871494635901013</v>
+      </c>
+      <c r="D53">
+        <v>3.919605364098987</v>
+      </c>
+      <c r="E53">
+        <v>1.3661</v>
+      </c>
+      <c r="F53">
+        <v>6.1761</v>
+      </c>
+      <c r="G53">
+        <v>0.385</v>
+      </c>
+      <c r="H53">
+        <v>7.3</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0.066</v>
+      </c>
+      <c r="K53">
+        <v>0.03800000000000001</v>
+      </c>
+      <c r="L53">
+        <v>0.028</v>
+      </c>
+      <c r="M53">
+        <v>1.13454957</v>
+      </c>
+      <c r="N53">
+        <v>-1.10654957</v>
+      </c>
+      <c r="O53">
+        <v>-0.3319648709999999</v>
+      </c>
+      <c r="P53">
+        <v>-0.7745846989999999</v>
+      </c>
+      <c r="Q53">
+        <v>-0.7365846989999999</v>
+      </c>
+      <c r="R53">
+        <v>1.040816326530612</v>
+      </c>
+      <c r="S53">
+        <v>0.1058773916568823</v>
+      </c>
+      <c r="T53">
+        <v>2.046131179171235</v>
+      </c>
+      <c r="U53">
+        <v>0.1837</v>
+      </c>
+      <c r="V53">
+        <v>0.007403819297203559</v>
+      </c>
+      <c r="W53">
+        <v>0.1823399183951037</v>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y53">
+        <v>0.02467939765734517</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>0.52</v>
+      </c>
+      <c r="B54">
+        <v>0.1466172802933752</v>
+      </c>
+      <c r="C54">
+        <v>-2.042375637537399</v>
+      </c>
+      <c r="D54">
+        <v>3.869824362462601</v>
+      </c>
+      <c r="E54">
+        <v>1.487200000000001</v>
+      </c>
+      <c r="F54">
+        <v>6.2972</v>
+      </c>
+      <c r="G54">
+        <v>0.385</v>
+      </c>
+      <c r="H54">
+        <v>7.3</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0.066</v>
+      </c>
+      <c r="K54">
+        <v>0.03800000000000001</v>
+      </c>
+      <c r="L54">
+        <v>0.028</v>
+      </c>
+      <c r="M54">
+        <v>1.15679564</v>
+      </c>
+      <c r="N54">
+        <v>-1.12879564</v>
+      </c>
+      <c r="O54">
+        <v>-0.338638692</v>
+      </c>
+      <c r="P54">
+        <v>-0.7901569480000001</v>
+      </c>
+      <c r="Q54">
+        <v>-0.7521569480000001</v>
+      </c>
+      <c r="R54">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="S54">
+        <v>0.107889420649734</v>
+      </c>
+      <c r="T54">
+        <v>2.088758912070635</v>
+      </c>
+      <c r="U54">
+        <v>0.1837</v>
+      </c>
+      <c r="V54">
+        <v>0.007261438156872719</v>
+      </c>
+      <c r="W54">
+        <v>0.1823660738105825</v>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y54">
+        <v>0.02420479385624241</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>0.53</v>
+      </c>
+      <c r="B55">
+        <v>0.1483612802933752</v>
+      </c>
+      <c r="C55">
+        <v>-2.212008008833684</v>
+      </c>
+      <c r="D55">
+        <v>3.821291991166316</v>
+      </c>
+      <c r="E55">
+        <v>1.608300000000001</v>
+      </c>
+      <c r="F55">
+        <v>6.4183</v>
+      </c>
+      <c r="G55">
+        <v>0.385</v>
+      </c>
+      <c r="H55">
+        <v>7.3</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0.066</v>
+      </c>
+      <c r="K55">
+        <v>0.03800000000000001</v>
+      </c>
+      <c r="L55">
+        <v>0.028</v>
+      </c>
+      <c r="M55">
+        <v>1.17904171</v>
+      </c>
+      <c r="N55">
+        <v>-1.15104171</v>
+      </c>
+      <c r="O55">
+        <v>-0.345312513</v>
+      </c>
+      <c r="P55">
+        <v>-0.805729197</v>
+      </c>
+      <c r="Q55">
+        <v>-0.767729197</v>
+      </c>
+      <c r="R55">
+        <v>1.127659574468085</v>
+      </c>
+      <c r="S55">
+        <v>0.1099870678976007</v>
+      </c>
+      <c r="T55">
+        <v>2.133200591050862</v>
+      </c>
+      <c r="U55">
+        <v>0.1837</v>
+      </c>
+      <c r="V55">
+        <v>0.007124429889761913</v>
+      </c>
+      <c r="W55">
+        <v>0.1823912422292507</v>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y55">
+        <v>0.02374809963253977</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>0.54</v>
+      </c>
+      <c r="B56">
+        <v>0.1501052802933752</v>
+      </c>
+      <c r="C56">
+        <v>-2.380438146018231</v>
+      </c>
+      <c r="D56">
+        <v>3.773961853981769</v>
+      </c>
+      <c r="E56">
+        <v>1.729400000000001</v>
+      </c>
+      <c r="F56">
+        <v>6.539400000000001</v>
+      </c>
+      <c r="G56">
+        <v>0.385</v>
+      </c>
+      <c r="H56">
+        <v>7.3</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0.066</v>
+      </c>
+      <c r="K56">
+        <v>0.03800000000000001</v>
+      </c>
+      <c r="L56">
+        <v>0.028</v>
+      </c>
+      <c r="M56">
+        <v>1.20128778</v>
+      </c>
+      <c r="N56">
+        <v>-1.17328778</v>
+      </c>
+      <c r="O56">
+        <v>-0.351986334</v>
+      </c>
+      <c r="P56">
+        <v>-0.8213014460000001</v>
+      </c>
+      <c r="Q56">
+        <v>-0.7833014460000001</v>
+      </c>
+      <c r="R56">
+        <v>1.173913043478261</v>
+      </c>
+      <c r="S56">
+        <v>0.1121759171997224</v>
+      </c>
+      <c r="T56">
+        <v>2.179574516943271</v>
+      </c>
+      <c r="U56">
+        <v>0.1837</v>
+      </c>
+      <c r="V56">
+        <v>0.006992496002914471</v>
+      </c>
+      <c r="W56">
+        <v>0.1824154784842646</v>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y56">
+        <v>0.02330832000971494</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>0.55</v>
+      </c>
+      <c r="B57">
+        <v>0.1518492802933752</v>
+      </c>
+      <c r="C57">
+        <v>-2.547710174805738</v>
+      </c>
+      <c r="D57">
+        <v>3.727789825194261</v>
+      </c>
+      <c r="E57">
+        <v>1.8505</v>
+      </c>
+      <c r="F57">
+        <v>6.6605</v>
+      </c>
+      <c r="G57">
+        <v>0.385</v>
+      </c>
+      <c r="H57">
+        <v>7.3</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0.066</v>
+      </c>
+      <c r="K57">
+        <v>0.03800000000000001</v>
+      </c>
+      <c r="L57">
+        <v>0.028</v>
+      </c>
+      <c r="M57">
+        <v>1.22353385</v>
+      </c>
+      <c r="N57">
+        <v>-1.19553385</v>
+      </c>
+      <c r="O57">
+        <v>-0.358660155</v>
+      </c>
+      <c r="P57">
+        <v>-0.836873695</v>
+      </c>
+      <c r="Q57">
+        <v>-0.7988736949999999</v>
+      </c>
+      <c r="R57">
+        <v>1.222222222222223</v>
+      </c>
+      <c r="S57">
+        <v>0.1144620486930496</v>
+      </c>
+      <c r="T57">
+        <v>2.228009506208678</v>
+      </c>
+      <c r="U57">
+        <v>0.1837</v>
+      </c>
+      <c r="V57">
+        <v>0.006865359711952391</v>
+      </c>
+      <c r="W57">
+        <v>0.1824388334209144</v>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y57">
+        <v>0.02288453237317467</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="B58">
+        <v>0.1535932802933752</v>
+      </c>
+      <c r="C58">
+        <v>-2.713866087609997</v>
+      </c>
+      <c r="D58">
+        <v>3.682733912390003</v>
+      </c>
+      <c r="E58">
+        <v>1.9716</v>
+      </c>
+      <c r="F58">
+        <v>6.7816</v>
+      </c>
+      <c r="G58">
+        <v>0.385</v>
+      </c>
+      <c r="H58">
+        <v>7.3</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0.066</v>
+      </c>
+      <c r="K58">
+        <v>0.03800000000000001</v>
+      </c>
+      <c r="L58">
+        <v>0.028</v>
+      </c>
+      <c r="M58">
+        <v>1.24577992</v>
+      </c>
+      <c r="N58">
+        <v>-1.21777992</v>
+      </c>
+      <c r="O58">
+        <v>-0.3653339759999999</v>
+      </c>
+      <c r="P58">
+        <v>-0.852445944</v>
+      </c>
+      <c r="Q58">
+        <v>-0.8144459439999999</v>
+      </c>
+      <c r="R58">
+        <v>1.272727272727273</v>
+      </c>
+      <c r="S58">
+        <v>0.1168520952542553</v>
+      </c>
+      <c r="T58">
+        <v>2.278646085895239</v>
+      </c>
+      <c r="U58">
+        <v>0.1837</v>
+      </c>
+      <c r="V58">
+        <v>0.006742764002810383</v>
+      </c>
+      <c r="W58">
+        <v>0.1824613542526837</v>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y58">
+        <v>0.02247588000936795</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="B59">
+        <v>0.1553372802933752</v>
+      </c>
+      <c r="C59">
+        <v>-2.878945870924955</v>
+      </c>
+      <c r="D59">
+        <v>3.638754129075045</v>
+      </c>
+      <c r="E59">
+        <v>2.092700000000001</v>
+      </c>
+      <c r="F59">
+        <v>6.9027</v>
+      </c>
+      <c r="G59">
+        <v>0.385</v>
+      </c>
+      <c r="H59">
+        <v>7.3</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0.066</v>
+      </c>
+      <c r="K59">
+        <v>0.03800000000000001</v>
+      </c>
+      <c r="L59">
+        <v>0.028</v>
+      </c>
+      <c r="M59">
+        <v>1.26802599</v>
+      </c>
+      <c r="N59">
+        <v>-1.24002599</v>
+      </c>
+      <c r="O59">
+        <v>-0.372007797</v>
+      </c>
+      <c r="P59">
+        <v>-0.8680181930000002</v>
+      </c>
+      <c r="Q59">
+        <v>-0.8300181930000001</v>
+      </c>
+      <c r="R59">
+        <v>1.325581395348838</v>
+      </c>
+      <c r="S59">
+        <v>0.1193533067717961</v>
+      </c>
+      <c r="T59">
+        <v>2.331637855334663</v>
+      </c>
+      <c r="U59">
+        <v>0.1837</v>
+      </c>
+      <c r="V59">
+        <v>0.006624469897497919</v>
+      </c>
+      <c r="W59">
+        <v>0.1824830848798296</v>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y59">
+        <v>0.02208156632499314</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>0.58</v>
+      </c>
+      <c r="B60">
+        <v>0.1570812802933752</v>
+      </c>
+      <c r="C60">
+        <v>-3.042987623686256</v>
+      </c>
+      <c r="D60">
+        <v>3.595812376313744</v>
+      </c>
+      <c r="E60">
+        <v>2.2138</v>
+      </c>
+      <c r="F60">
+        <v>7.0238</v>
+      </c>
+      <c r="G60">
+        <v>0.385</v>
+      </c>
+      <c r="H60">
+        <v>7.3</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0.066</v>
+      </c>
+      <c r="K60">
+        <v>0.03800000000000001</v>
+      </c>
+      <c r="L60">
+        <v>0.028</v>
+      </c>
+      <c r="M60">
+        <v>1.29027206</v>
+      </c>
+      <c r="N60">
+        <v>-1.26227206</v>
+      </c>
+      <c r="O60">
+        <v>-0.3786816179999999</v>
+      </c>
+      <c r="P60">
+        <v>-0.883590442</v>
+      </c>
+      <c r="Q60">
+        <v>-0.845590442</v>
+      </c>
+      <c r="R60">
+        <v>1.380952380952381</v>
+      </c>
+      <c r="S60">
+        <v>0.121973623599696</v>
+      </c>
+      <c r="T60">
+        <v>2.38715304236644</v>
+      </c>
+      <c r="U60">
+        <v>0.1837</v>
+      </c>
+      <c r="V60">
+        <v>0.006510254899265198</v>
+      </c>
+      <c r="W60">
+        <v>0.182504066175005</v>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y60">
+        <v>0.02170084966421737</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>0.59</v>
+      </c>
+      <c r="B61">
+        <v>0.1588252802933752</v>
+      </c>
+      <c r="C61">
+        <v>-3.206027667349686</v>
+      </c>
+      <c r="D61">
+        <v>3.553872332650312</v>
+      </c>
+      <c r="E61">
+        <v>2.334899999999999</v>
+      </c>
+      <c r="F61">
+        <v>7.144899999999999</v>
+      </c>
+      <c r="G61">
+        <v>0.385</v>
+      </c>
+      <c r="H61">
+        <v>7.3</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0.066</v>
+      </c>
+      <c r="K61">
+        <v>0.03800000000000001</v>
+      </c>
+      <c r="L61">
+        <v>0.028</v>
+      </c>
+      <c r="M61">
+        <v>1.31251813</v>
+      </c>
+      <c r="N61">
+        <v>-1.28451813</v>
+      </c>
+      <c r="O61">
+        <v>-0.3853554389999999</v>
+      </c>
+      <c r="P61">
+        <v>-0.8991626909999998</v>
+      </c>
+      <c r="Q61">
+        <v>-0.8611626909999998</v>
+      </c>
+      <c r="R61">
+        <v>1.439024390243902</v>
+      </c>
+      <c r="S61">
+        <v>0.1247217607606641</v>
+      </c>
+      <c r="T61">
+        <v>2.445376287302206</v>
+      </c>
+      <c r="U61">
+        <v>0.1837</v>
+      </c>
+      <c r="V61">
+        <v>0.006399911595887823</v>
+      </c>
+      <c r="W61">
+        <v>0.1825243362398354</v>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y61">
+        <v>0.02133303865295944</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>0.6</v>
+      </c>
+      <c r="B62">
+        <v>0.1605692802933752</v>
+      </c>
+      <c r="C62">
+        <v>-3.368100648354964</v>
+      </c>
+      <c r="D62">
+        <v>3.512899351645036</v>
+      </c>
+      <c r="E62">
+        <v>2.456</v>
+      </c>
+      <c r="F62">
+        <v>7.265999999999999</v>
+      </c>
+      <c r="G62">
+        <v>0.385</v>
+      </c>
+      <c r="H62">
+        <v>7.3</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0.066</v>
+      </c>
+      <c r="K62">
+        <v>0.03800000000000001</v>
+      </c>
+      <c r="L62">
+        <v>0.028</v>
+      </c>
+      <c r="M62">
+        <v>1.3347642</v>
+      </c>
+      <c r="N62">
+        <v>-1.3067642</v>
+      </c>
+      <c r="O62">
+        <v>-0.39202926</v>
+      </c>
+      <c r="P62">
+        <v>-0.91473494</v>
+      </c>
+      <c r="Q62">
+        <v>-0.87673494</v>
+      </c>
+      <c r="R62">
+        <v>1.5</v>
+      </c>
+      <c r="S62">
+        <v>0.1276073047796807</v>
+      </c>
+      <c r="T62">
+        <v>2.506510694484762</v>
+      </c>
+      <c r="U62">
+        <v>0.1837</v>
+      </c>
+      <c r="V62">
+        <v>0.006293246402623024</v>
+      </c>
+      <c r="W62">
+        <v>0.1825439306358382</v>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y62">
+        <v>0.02097748800874344</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>0.61</v>
+      </c>
+      <c r="B63">
+        <v>0.1623132802933752</v>
+      </c>
+      <c r="C63">
+        <v>-3.529239633582406</v>
+      </c>
+      <c r="D63">
+        <v>3.472860366417594</v>
+      </c>
+      <c r="E63">
+        <v>2.5771</v>
+      </c>
+      <c r="F63">
+        <v>7.387099999999999</v>
+      </c>
+      <c r="G63">
+        <v>0.385</v>
+      </c>
+      <c r="H63">
+        <v>7.3</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0.066</v>
+      </c>
+      <c r="K63">
+        <v>0.03800000000000001</v>
+      </c>
+      <c r="L63">
+        <v>0.028</v>
+      </c>
+      <c r="M63">
+        <v>1.35701027</v>
+      </c>
+      <c r="N63">
+        <v>-1.32901027</v>
+      </c>
+      <c r="O63">
+        <v>-0.398703081</v>
+      </c>
+      <c r="P63">
+        <v>-0.930307189</v>
+      </c>
+      <c r="Q63">
+        <v>-0.8923071889999999</v>
+      </c>
+      <c r="R63">
+        <v>1.564102564102564</v>
+      </c>
+      <c r="S63">
+        <v>0.1306408254150572</v>
+      </c>
+      <c r="T63">
+        <v>2.570780199471551</v>
+      </c>
+      <c r="U63">
+        <v>0.1837</v>
+      </c>
+      <c r="V63">
+        <v>0.006190078428809532</v>
+      </c>
+      <c r="W63">
+        <v>0.1825628825926277</v>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y63">
+        <v>0.02063359476269844</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
         <v>0.62</v>
       </c>
-      <c r="AM3">
-        <v>0.613</v>
-      </c>
-      <c r="AN3">
-        <v>24.16107382550335</v>
-      </c>
-      <c r="AO3">
-        <v>-0.8370967741935484</v>
-      </c>
-      <c r="AP3">
-        <v>27.49838591416403</v>
-      </c>
-      <c r="AQ3">
-        <v>-0.8466557911908646</v>
+      <c r="B64">
+        <v>0.1640572802933752</v>
+      </c>
+      <c r="C64">
+        <v>-3.689476199355277</v>
+      </c>
+      <c r="D64">
+        <v>3.433723800644723</v>
+      </c>
+      <c r="E64">
+        <v>2.6982</v>
+      </c>
+      <c r="F64">
+        <v>7.5082</v>
+      </c>
+      <c r="G64">
+        <v>0.385</v>
+      </c>
+      <c r="H64">
+        <v>7.3</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0.066</v>
+      </c>
+      <c r="K64">
+        <v>0.03800000000000001</v>
+      </c>
+      <c r="L64">
+        <v>0.028</v>
+      </c>
+      <c r="M64">
+        <v>1.37925634</v>
+      </c>
+      <c r="N64">
+        <v>-1.35125634</v>
+      </c>
+      <c r="O64">
+        <v>-0.405376902</v>
+      </c>
+      <c r="P64">
+        <v>-0.945879438</v>
+      </c>
+      <c r="Q64">
+        <v>-0.9078794379999999</v>
+      </c>
+      <c r="R64">
+        <v>1.631578947368421</v>
+      </c>
+      <c r="S64">
+        <v>0.1338340050312429</v>
+      </c>
+      <c r="T64">
+        <v>2.638432309983961</v>
+      </c>
+      <c r="U64">
+        <v>0.1837</v>
+      </c>
+      <c r="V64">
+        <v>0.006090238454151313</v>
+      </c>
+      <c r="W64">
+        <v>0.1825812231959724</v>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y64">
+        <v>0.02030079484717107</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>0.63</v>
+      </c>
+      <c r="B65">
+        <v>0.1658012802933752</v>
+      </c>
+      <c r="C65">
+        <v>-3.84884051449122</v>
+      </c>
+      <c r="D65">
+        <v>3.395459485508779</v>
+      </c>
+      <c r="E65">
+        <v>2.8193</v>
+      </c>
+      <c r="F65">
+        <v>7.6293</v>
+      </c>
+      <c r="G65">
+        <v>0.385</v>
+      </c>
+      <c r="H65">
+        <v>7.3</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0.066</v>
+      </c>
+      <c r="K65">
+        <v>0.03800000000000001</v>
+      </c>
+      <c r="L65">
+        <v>0.028</v>
+      </c>
+      <c r="M65">
+        <v>1.40150241</v>
+      </c>
+      <c r="N65">
+        <v>-1.37350241</v>
+      </c>
+      <c r="O65">
+        <v>-0.412050723</v>
+      </c>
+      <c r="P65">
+        <v>-0.9614516870000001</v>
+      </c>
+      <c r="Q65">
+        <v>-0.923451687</v>
+      </c>
+      <c r="R65">
+        <v>1.702702702702703</v>
+      </c>
+      <c r="S65">
+        <v>0.1371997889510063</v>
+      </c>
+      <c r="T65">
+        <v>2.709741291334878</v>
+      </c>
+      <c r="U65">
+        <v>0.1837</v>
+      </c>
+      <c r="V65">
+        <v>0.005993568002498118</v>
+      </c>
+      <c r="W65">
+        <v>0.1825989815579411</v>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y65">
+        <v>0.0199785600083271</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>0.64</v>
+      </c>
+      <c r="B66">
+        <v>0.1675452802933752</v>
+      </c>
+      <c r="C66">
+        <v>-4.007361417861918</v>
+      </c>
+      <c r="D66">
+        <v>3.358038582138082</v>
+      </c>
+      <c r="E66">
+        <v>2.9404</v>
+      </c>
+      <c r="F66">
+        <v>7.7504</v>
+      </c>
+      <c r="G66">
+        <v>0.385</v>
+      </c>
+      <c r="H66">
+        <v>7.3</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0.066</v>
+      </c>
+      <c r="K66">
+        <v>0.03800000000000001</v>
+      </c>
+      <c r="L66">
+        <v>0.028</v>
+      </c>
+      <c r="M66">
+        <v>1.42374848</v>
+      </c>
+      <c r="N66">
+        <v>-1.39574848</v>
+      </c>
+      <c r="O66">
+        <v>-0.418724544</v>
+      </c>
+      <c r="P66">
+        <v>-0.9770239359999999</v>
+      </c>
+      <c r="Q66">
+        <v>-0.9390239359999999</v>
+      </c>
+      <c r="R66">
+        <v>1.777777777777778</v>
+      </c>
+      <c r="S66">
+        <v>0.140752560866312</v>
+      </c>
+      <c r="T66">
+        <v>2.785011882760847</v>
+      </c>
+      <c r="U66">
+        <v>0.1837</v>
+      </c>
+      <c r="V66">
+        <v>0.005899918502459086</v>
+      </c>
+      <c r="W66">
+        <v>0.1826161849710983</v>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y66">
+        <v>0.019666395008197</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>0.65</v>
+      </c>
+      <c r="B67">
+        <v>0.1692892802933752</v>
+      </c>
+      <c r="C67">
+        <v>-4.165066490879997</v>
+      </c>
+      <c r="D67">
+        <v>3.321433509120003</v>
+      </c>
+      <c r="E67">
+        <v>3.061500000000001</v>
+      </c>
+      <c r="F67">
+        <v>7.8715</v>
+      </c>
+      <c r="G67">
+        <v>0.385</v>
+      </c>
+      <c r="H67">
+        <v>7.3</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0.066</v>
+      </c>
+      <c r="K67">
+        <v>0.03800000000000001</v>
+      </c>
+      <c r="L67">
+        <v>0.028</v>
+      </c>
+      <c r="M67">
+        <v>1.44599455</v>
+      </c>
+      <c r="N67">
+        <v>-1.41799455</v>
+      </c>
+      <c r="O67">
+        <v>-0.425398365</v>
+      </c>
+      <c r="P67">
+        <v>-0.992596185</v>
+      </c>
+      <c r="Q67">
+        <v>-0.954596185</v>
+      </c>
+      <c r="R67">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="S67">
+        <v>0.1445083483196352</v>
+      </c>
+      <c r="T67">
+        <v>2.864583650839728</v>
+      </c>
+      <c r="U67">
+        <v>0.1837</v>
+      </c>
+      <c r="V67">
+        <v>0.005809150525498176</v>
+      </c>
+      <c r="W67">
+        <v>0.182632859048466</v>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y67">
+        <v>0.01936383508499395</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>0.66</v>
+      </c>
+      <c r="B68">
+        <v>0.1710332802933752</v>
+      </c>
+      <c r="C68">
+        <v>-4.321982125296104</v>
+      </c>
+      <c r="D68">
+        <v>3.285617874703896</v>
+      </c>
+      <c r="E68">
+        <v>3.182600000000001</v>
+      </c>
+      <c r="F68">
+        <v>7.9926</v>
+      </c>
+      <c r="G68">
+        <v>0.385</v>
+      </c>
+      <c r="H68">
+        <v>7.3</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0.066</v>
+      </c>
+      <c r="K68">
+        <v>0.03800000000000001</v>
+      </c>
+      <c r="L68">
+        <v>0.028</v>
+      </c>
+      <c r="M68">
+        <v>1.46824062</v>
+      </c>
+      <c r="N68">
+        <v>-1.44024062</v>
+      </c>
+      <c r="O68">
+        <v>-0.432072186</v>
+      </c>
+      <c r="P68">
+        <v>-1.008168434</v>
+      </c>
+      <c r="Q68">
+        <v>-0.9701684339999999</v>
+      </c>
+      <c r="R68">
+        <v>1.941176470588236</v>
+      </c>
+      <c r="S68">
+        <v>0.1484850644466833</v>
+      </c>
+      <c r="T68">
+        <v>2.948836111158544</v>
+      </c>
+      <c r="U68">
+        <v>0.1837</v>
+      </c>
+      <c r="V68">
+        <v>0.005721133093293659</v>
+      </c>
+      <c r="W68">
+        <v>0.182649027850762</v>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y68">
+        <v>0.01907044364431221</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>0.67</v>
+      </c>
+      <c r="B69">
+        <v>0.1727772802933752</v>
+      </c>
+      <c r="C69">
+        <v>-4.478133586656363</v>
+      </c>
+      <c r="D69">
+        <v>3.250566413343636</v>
+      </c>
+      <c r="E69">
+        <v>3.3037</v>
+      </c>
+      <c r="F69">
+        <v>8.1137</v>
+      </c>
+      <c r="G69">
+        <v>0.385</v>
+      </c>
+      <c r="H69">
+        <v>7.3</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0.066</v>
+      </c>
+      <c r="K69">
+        <v>0.03800000000000001</v>
+      </c>
+      <c r="L69">
+        <v>0.028</v>
+      </c>
+      <c r="M69">
+        <v>1.49048669</v>
+      </c>
+      <c r="N69">
+        <v>-1.46248669</v>
+      </c>
+      <c r="O69">
+        <v>-0.438746007</v>
+      </c>
+      <c r="P69">
+        <v>-1.023740683</v>
+      </c>
+      <c r="Q69">
+        <v>-0.985740683</v>
+      </c>
+      <c r="R69">
+        <v>2.030303030303031</v>
+      </c>
+      <c r="S69">
+        <v>0.1527027936723404</v>
+      </c>
+      <c r="T69">
+        <v>3.038194781193652</v>
+      </c>
+      <c r="U69">
+        <v>0.1837</v>
+      </c>
+      <c r="V69">
+        <v>0.005635743047125097</v>
+      </c>
+      <c r="W69">
+        <v>0.1826647140022431</v>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y69">
+        <v>0.01878581015708369</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>0.68</v>
+      </c>
+      <c r="B70">
+        <v>0.1745212802933752</v>
+      </c>
+      <c r="C70">
+        <v>-4.633545073740867</v>
+      </c>
+      <c r="D70">
+        <v>3.216254926259133</v>
+      </c>
+      <c r="E70">
+        <v>3.4248</v>
+      </c>
+      <c r="F70">
+        <v>8.2348</v>
+      </c>
+      <c r="G70">
+        <v>0.385</v>
+      </c>
+      <c r="H70">
+        <v>7.3</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0.066</v>
+      </c>
+      <c r="K70">
+        <v>0.03800000000000001</v>
+      </c>
+      <c r="L70">
+        <v>0.028</v>
+      </c>
+      <c r="M70">
+        <v>1.51273276</v>
+      </c>
+      <c r="N70">
+        <v>-1.48473276</v>
+      </c>
+      <c r="O70">
+        <v>-0.445419828</v>
+      </c>
+      <c r="P70">
+        <v>-1.039312932</v>
+      </c>
+      <c r="Q70">
+        <v>-1.001312932</v>
+      </c>
+      <c r="R70">
+        <v>2.125</v>
+      </c>
+      <c r="S70">
+        <v>0.157184130974601</v>
+      </c>
+      <c r="T70">
+        <v>3.133138368105953</v>
+      </c>
+      <c r="U70">
+        <v>0.1837</v>
+      </c>
+      <c r="V70">
+        <v>0.005552864472902669</v>
+      </c>
+      <c r="W70">
+        <v>0.1826799387963278</v>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y70">
+        <v>0.01850954824300888</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>0.6900000000000001</v>
+      </c>
+      <c r="B71">
+        <v>0.1762652802933752</v>
+      </c>
+      <c r="C71">
+        <v>-4.788239774277051</v>
+      </c>
+      <c r="D71">
+        <v>3.182660225722949</v>
+      </c>
+      <c r="E71">
+        <v>3.5459</v>
+      </c>
+      <c r="F71">
+        <v>8.3559</v>
+      </c>
+      <c r="G71">
+        <v>0.385</v>
+      </c>
+      <c r="H71">
+        <v>7.3</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0.066</v>
+      </c>
+      <c r="K71">
+        <v>0.03800000000000001</v>
+      </c>
+      <c r="L71">
+        <v>0.028</v>
+      </c>
+      <c r="M71">
+        <v>1.53497883</v>
+      </c>
+      <c r="N71">
+        <v>-1.50697883</v>
+      </c>
+      <c r="O71">
+        <v>-0.452093649</v>
+      </c>
+      <c r="P71">
+        <v>-1.054885181</v>
+      </c>
+      <c r="Q71">
+        <v>-1.016885181</v>
+      </c>
+      <c r="R71">
+        <v>2.225806451612904</v>
+      </c>
+      <c r="S71">
+        <v>0.1619545868124914</v>
+      </c>
+      <c r="T71">
+        <v>3.234207347722275</v>
+      </c>
+      <c r="U71">
+        <v>0.1837</v>
+      </c>
+      <c r="V71">
+        <v>0.005472388176193933</v>
+      </c>
+      <c r="W71">
+        <v>0.1826947222920332</v>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y71">
+        <v>0.01824129392064644</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="B72">
+        <v>0.1780092802933752</v>
+      </c>
+      <c r="C72">
+        <v>-4.942239917197517</v>
+      </c>
+      <c r="D72">
+        <v>3.149760082802483</v>
+      </c>
+      <c r="E72">
+        <v>3.667000000000001</v>
+      </c>
+      <c r="F72">
+        <v>8.477</v>
+      </c>
+      <c r="G72">
+        <v>0.385</v>
+      </c>
+      <c r="H72">
+        <v>7.3</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0.066</v>
+      </c>
+      <c r="K72">
+        <v>0.03800000000000001</v>
+      </c>
+      <c r="L72">
+        <v>0.028</v>
+      </c>
+      <c r="M72">
+        <v>1.5572249</v>
+      </c>
+      <c r="N72">
+        <v>-1.5292249</v>
+      </c>
+      <c r="O72">
+        <v>-0.45876747</v>
+      </c>
+      <c r="P72">
+        <v>-1.07045743</v>
+      </c>
+      <c r="Q72">
+        <v>-1.03245743</v>
+      </c>
+      <c r="R72">
+        <v>2.333333333333334</v>
+      </c>
+      <c r="S72">
+        <v>0.1670430730395744</v>
+      </c>
+      <c r="T72">
+        <v>3.342014259313017</v>
+      </c>
+      <c r="U72">
+        <v>0.1837</v>
+      </c>
+      <c r="V72">
+        <v>0.005394211202248307</v>
+      </c>
+      <c r="W72">
+        <v>0.182709083402147</v>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y72">
+        <v>0.01798070400749441</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>0.71</v>
+      </c>
+      <c r="B73">
+        <v>0.1797532802933752</v>
+      </c>
+      <c r="C73">
+        <v>-5.095566821689778</v>
+      </c>
+      <c r="D73">
+        <v>3.117533178310221</v>
+      </c>
+      <c r="E73">
+        <v>3.788099999999999</v>
+      </c>
+      <c r="F73">
+        <v>8.598099999999999</v>
+      </c>
+      <c r="G73">
+        <v>0.385</v>
+      </c>
+      <c r="H73">
+        <v>7.3</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0.066</v>
+      </c>
+      <c r="K73">
+        <v>0.03800000000000001</v>
+      </c>
+      <c r="L73">
+        <v>0.028</v>
+      </c>
+      <c r="M73">
+        <v>1.57947097</v>
+      </c>
+      <c r="N73">
+        <v>-1.55147097</v>
+      </c>
+      <c r="O73">
+        <v>-0.4654412909999999</v>
+      </c>
+      <c r="P73">
+        <v>-1.086029679</v>
+      </c>
+      <c r="Q73">
+        <v>-1.048029679</v>
+      </c>
+      <c r="R73">
+        <v>2.448275862068965</v>
+      </c>
+      <c r="S73">
+        <v>0.1724824893512838</v>
+      </c>
+      <c r="T73">
+        <v>3.45725613032381</v>
+      </c>
+      <c r="U73">
+        <v>0.1837</v>
+      </c>
+      <c r="V73">
+        <v>0.005318236396582838</v>
+      </c>
+      <c r="W73">
+        <v>0.1827230399739477</v>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y73">
+        <v>0.01772745465527614</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>0.72</v>
+      </c>
+      <c r="B74">
+        <v>0.1814972802933752</v>
+      </c>
+      <c r="C74">
+        <v>-5.248240943265391</v>
+      </c>
+      <c r="D74">
+        <v>3.085959056734608</v>
+      </c>
+      <c r="E74">
+        <v>3.909199999999999</v>
+      </c>
+      <c r="F74">
+        <v>8.719199999999999</v>
+      </c>
+      <c r="G74">
+        <v>0.385</v>
+      </c>
+      <c r="H74">
+        <v>7.3</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0.066</v>
+      </c>
+      <c r="K74">
+        <v>0.03800000000000001</v>
+      </c>
+      <c r="L74">
+        <v>0.028</v>
+      </c>
+      <c r="M74">
+        <v>1.60171704</v>
+      </c>
+      <c r="N74">
+        <v>-1.57371704</v>
+      </c>
+      <c r="O74">
+        <v>-0.4721151119999999</v>
+      </c>
+      <c r="P74">
+        <v>-1.101601928</v>
+      </c>
+      <c r="Q74">
+        <v>-1.063601928</v>
+      </c>
+      <c r="R74">
+        <v>2.571428571428571</v>
+      </c>
+      <c r="S74">
+        <v>0.1783104353995439</v>
+      </c>
+      <c r="T74">
+        <v>3.58072956354966</v>
+      </c>
+      <c r="U74">
+        <v>0.1837</v>
+      </c>
+      <c r="V74">
+        <v>0.005244372002185854</v>
+      </c>
+      <c r="W74">
+        <v>0.1827366088631985</v>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y74">
+        <v>0.01748124000728624</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>0.73</v>
+      </c>
+      <c r="B75">
+        <v>0.1832412802933752</v>
+      </c>
+      <c r="C75">
+        <v>-5.400281917057627</v>
+      </c>
+      <c r="D75">
+        <v>3.055018082942372</v>
+      </c>
+      <c r="E75">
+        <v>4.0303</v>
+      </c>
+      <c r="F75">
+        <v>8.840299999999999</v>
+      </c>
+      <c r="G75">
+        <v>0.385</v>
+      </c>
+      <c r="H75">
+        <v>7.3</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0.066</v>
+      </c>
+      <c r="K75">
+        <v>0.03800000000000001</v>
+      </c>
+      <c r="L75">
+        <v>0.028</v>
+      </c>
+      <c r="M75">
+        <v>1.62396311</v>
+      </c>
+      <c r="N75">
+        <v>-1.59596311</v>
+      </c>
+      <c r="O75">
+        <v>-0.4787889329999999</v>
+      </c>
+      <c r="P75">
+        <v>-1.117174177</v>
+      </c>
+      <c r="Q75">
+        <v>-1.079174177</v>
+      </c>
+      <c r="R75">
+        <v>2.703703703703703</v>
+      </c>
+      <c r="S75">
+        <v>0.1845700811550826</v>
+      </c>
+      <c r="T75">
+        <v>3.713349177014462</v>
+      </c>
+      <c r="U75">
+        <v>0.1837</v>
+      </c>
+      <c r="V75">
+        <v>0.005172531289827143</v>
+      </c>
+      <c r="W75">
+        <v>0.1827498060020588</v>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y75">
+        <v>0.01724177096609047</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>0.74</v>
+      </c>
+      <c r="B76">
+        <v>0.1849852802933752</v>
+      </c>
+      <c r="C76">
+        <v>-5.551708598540301</v>
+      </c>
+      <c r="D76">
+        <v>3.024691401459698</v>
+      </c>
+      <c r="E76">
+        <v>4.1514</v>
+      </c>
+      <c r="F76">
+        <v>8.961399999999999</v>
+      </c>
+      <c r="G76">
+        <v>0.385</v>
+      </c>
+      <c r="H76">
+        <v>7.3</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0.066</v>
+      </c>
+      <c r="K76">
+        <v>0.03800000000000001</v>
+      </c>
+      <c r="L76">
+        <v>0.028</v>
+      </c>
+      <c r="M76">
+        <v>1.64620918</v>
+      </c>
+      <c r="N76">
+        <v>-1.61820918</v>
+      </c>
+      <c r="O76">
+        <v>-0.4854627539999999</v>
+      </c>
+      <c r="P76">
+        <v>-1.132746426</v>
+      </c>
+      <c r="Q76">
+        <v>-1.094746426</v>
+      </c>
+      <c r="R76">
+        <v>2.846153846153846</v>
+      </c>
+      <c r="S76">
+        <v>0.1913112381225858</v>
+      </c>
+      <c r="T76">
+        <v>3.856170299207326</v>
+      </c>
+      <c r="U76">
+        <v>0.1837</v>
+      </c>
+      <c r="V76">
+        <v>0.005102632218342993</v>
+      </c>
+      <c r="W76">
+        <v>0.1827626464614904</v>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y76">
+        <v>0.01700877406114332</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>0.75</v>
+      </c>
+      <c r="B77">
+        <v>0.1867292802933752</v>
+      </c>
+      <c r="C77">
+        <v>-5.702539101845187</v>
+      </c>
+      <c r="D77">
+        <v>2.994960898154813</v>
+      </c>
+      <c r="E77">
+        <v>4.2725</v>
+      </c>
+      <c r="F77">
+        <v>9.0825</v>
+      </c>
+      <c r="G77">
+        <v>0.385</v>
+      </c>
+      <c r="H77">
+        <v>7.3</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0.066</v>
+      </c>
+      <c r="K77">
+        <v>0.03800000000000001</v>
+      </c>
+      <c r="L77">
+        <v>0.028</v>
+      </c>
+      <c r="M77">
+        <v>1.66845525</v>
+      </c>
+      <c r="N77">
+        <v>-1.64045525</v>
+      </c>
+      <c r="O77">
+        <v>-0.4921365749999999</v>
+      </c>
+      <c r="P77">
+        <v>-1.148318675</v>
+      </c>
+      <c r="Q77">
+        <v>-1.110318675</v>
+      </c>
+      <c r="R77">
+        <v>3</v>
+      </c>
+      <c r="S77">
+        <v>0.1985916876474893</v>
+      </c>
+      <c r="T77">
+        <v>4.01041711117562</v>
+      </c>
+      <c r="U77">
+        <v>0.1837</v>
+      </c>
+      <c r="V77">
+        <v>0.00503459712209842</v>
+      </c>
+      <c r="W77">
+        <v>0.1827751445086705</v>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y77">
+        <v>0.0167819904069948</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>0.76</v>
+      </c>
+      <c r="B78">
+        <v>0.1884732802933752</v>
+      </c>
+      <c r="C78">
+        <v>-5.852790835841626</v>
+      </c>
+      <c r="D78">
+        <v>2.965809164158374</v>
+      </c>
+      <c r="E78">
+        <v>4.3936</v>
+      </c>
+      <c r="F78">
+        <v>9.2036</v>
+      </c>
+      <c r="G78">
+        <v>0.385</v>
+      </c>
+      <c r="H78">
+        <v>7.3</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0.066</v>
+      </c>
+      <c r="K78">
+        <v>0.03800000000000001</v>
+      </c>
+      <c r="L78">
+        <v>0.028</v>
+      </c>
+      <c r="M78">
+        <v>1.69070132</v>
+      </c>
+      <c r="N78">
+        <v>-1.66270132</v>
+      </c>
+      <c r="O78">
+        <v>-0.498810396</v>
+      </c>
+      <c r="P78">
+        <v>-1.163890924</v>
+      </c>
+      <c r="Q78">
+        <v>-1.125890924</v>
+      </c>
+      <c r="R78">
+        <v>3.166666666666667</v>
+      </c>
+      <c r="S78">
+        <v>0.206478841299468</v>
+      </c>
+      <c r="T78">
+        <v>4.177517824141271</v>
+      </c>
+      <c r="U78">
+        <v>0.1837</v>
+      </c>
+      <c r="V78">
+        <v>0.00496835242312344</v>
+      </c>
+      <c r="W78">
+        <v>0.1827873136598722</v>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y78">
+        <v>0.01656117474374486</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>0.77</v>
+      </c>
+      <c r="B79">
+        <v>0.1902172802933752</v>
+      </c>
+      <c r="C79">
+        <v>-6.00248053812935</v>
+      </c>
+      <c r="D79">
+        <v>2.93721946187065</v>
+      </c>
+      <c r="E79">
+        <v>4.5147</v>
+      </c>
+      <c r="F79">
+        <v>9.3247</v>
+      </c>
+      <c r="G79">
+        <v>0.385</v>
+      </c>
+      <c r="H79">
+        <v>7.3</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0.066</v>
+      </c>
+      <c r="K79">
+        <v>0.03800000000000001</v>
+      </c>
+      <c r="L79">
+        <v>0.028</v>
+      </c>
+      <c r="M79">
+        <v>1.71294739</v>
+      </c>
+      <c r="N79">
+        <v>-1.68494739</v>
+      </c>
+      <c r="O79">
+        <v>-0.505484217</v>
+      </c>
+      <c r="P79">
+        <v>-1.179463173</v>
+      </c>
+      <c r="Q79">
+        <v>-1.141463173</v>
+      </c>
+      <c r="R79">
+        <v>3.347826086956522</v>
+      </c>
+      <c r="S79">
+        <v>0.2150518343994448</v>
+      </c>
+      <c r="T79">
+        <v>4.359149033886543</v>
+      </c>
+      <c r="U79">
+        <v>0.1837</v>
+      </c>
+      <c r="V79">
+        <v>0.004903828365680278</v>
+      </c>
+      <c r="W79">
+        <v>0.1827991667292245</v>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y79">
+        <v>0.01634609455226765</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>0.78</v>
+      </c>
+      <c r="B80">
+        <v>0.1919612802933752</v>
+      </c>
+      <c r="C80">
+        <v>-6.15162430708397</v>
+      </c>
+      <c r="D80">
+        <v>2.90917569291603</v>
+      </c>
+      <c r="E80">
+        <v>4.635800000000001</v>
+      </c>
+      <c r="F80">
+        <v>9.4458</v>
+      </c>
+      <c r="G80">
+        <v>0.385</v>
+      </c>
+      <c r="H80">
+        <v>7.3</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0.066</v>
+      </c>
+      <c r="K80">
+        <v>0.03800000000000001</v>
+      </c>
+      <c r="L80">
+        <v>0.028</v>
+      </c>
+      <c r="M80">
+        <v>1.73519346</v>
+      </c>
+      <c r="N80">
+        <v>-1.70719346</v>
+      </c>
+      <c r="O80">
+        <v>-0.512158038</v>
+      </c>
+      <c r="P80">
+        <v>-1.195035422</v>
+      </c>
+      <c r="Q80">
+        <v>-1.157035422</v>
+      </c>
+      <c r="R80">
+        <v>3.545454545454546</v>
+      </c>
+      <c r="S80">
+        <v>0.2244041905085105</v>
+      </c>
+      <c r="T80">
+        <v>4.557292171790477</v>
+      </c>
+      <c r="U80">
+        <v>0.1837</v>
+      </c>
+      <c r="V80">
+        <v>0.00484095877124848</v>
+      </c>
+      <c r="W80">
+        <v>0.1828107158737217</v>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y80">
+        <v>0.01613652923749498</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>0.79</v>
+      </c>
+      <c r="B81">
+        <v>0.1937052802933752</v>
+      </c>
+      <c r="C81">
+        <v>-6.300237632084067</v>
+      </c>
+      <c r="D81">
+        <v>2.881662367915934</v>
+      </c>
+      <c r="E81">
+        <v>4.756900000000001</v>
+      </c>
+      <c r="F81">
+        <v>9.5669</v>
+      </c>
+      <c r="G81">
+        <v>0.385</v>
+      </c>
+      <c r="H81">
+        <v>7.3</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0.066</v>
+      </c>
+      <c r="K81">
+        <v>0.03800000000000001</v>
+      </c>
+      <c r="L81">
+        <v>0.028</v>
+      </c>
+      <c r="M81">
+        <v>1.75743953</v>
+      </c>
+      <c r="N81">
+        <v>-1.72943953</v>
+      </c>
+      <c r="O81">
+        <v>-0.518831859</v>
+      </c>
+      <c r="P81">
+        <v>-1.210607671</v>
+      </c>
+      <c r="Q81">
+        <v>-1.172607671</v>
+      </c>
+      <c r="R81">
+        <v>3.761904761904763</v>
+      </c>
+      <c r="S81">
+        <v>0.234647247199392</v>
+      </c>
+      <c r="T81">
+        <v>4.774306084732881</v>
+      </c>
+      <c r="U81">
+        <v>0.1837</v>
+      </c>
+      <c r="V81">
+        <v>0.004779680812118752</v>
+      </c>
+      <c r="W81">
+        <v>0.1828219726348138</v>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y81">
+        <v>0.01593226937372916</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>0.8</v>
+      </c>
+      <c r="B82">
+        <v>0.1954492802933752</v>
+      </c>
+      <c r="C82">
+        <v>-6.448335422039124</v>
+      </c>
+      <c r="D82">
+        <v>2.854664577960877</v>
+      </c>
+      <c r="E82">
+        <v>4.878000000000001</v>
+      </c>
+      <c r="F82">
+        <v>9.688000000000001</v>
+      </c>
+      <c r="G82">
+        <v>0.385</v>
+      </c>
+      <c r="H82">
+        <v>7.3</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0.066</v>
+      </c>
+      <c r="K82">
+        <v>0.03800000000000001</v>
+      </c>
+      <c r="L82">
+        <v>0.028</v>
+      </c>
+      <c r="M82">
+        <v>1.7796856</v>
+      </c>
+      <c r="N82">
+        <v>-1.7516856</v>
+      </c>
+      <c r="O82">
+        <v>-0.52550568</v>
+      </c>
+      <c r="P82">
+        <v>-1.22617992</v>
+      </c>
+      <c r="Q82">
+        <v>-1.18817992</v>
+      </c>
+      <c r="R82">
+        <v>4.000000000000001</v>
+      </c>
+      <c r="S82">
+        <v>0.2459146095593616</v>
+      </c>
+      <c r="T82">
+        <v>5.013021388969525</v>
+      </c>
+      <c r="U82">
+        <v>0.1837</v>
+      </c>
+      <c r="V82">
+        <v>0.004719934801967268</v>
+      </c>
+      <c r="W82">
+        <v>0.1828329479768786</v>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y82">
+        <v>0.01573311600655758</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="B83">
+        <v>0.1971932802933752</v>
+      </c>
+      <c r="C83">
+        <v>-6.595932032328701</v>
+      </c>
+      <c r="D83">
+        <v>2.8281679676713</v>
+      </c>
+      <c r="E83">
+        <v>4.999100000000001</v>
+      </c>
+      <c r="F83">
+        <v>9.809100000000001</v>
+      </c>
+      <c r="G83">
+        <v>0.385</v>
+      </c>
+      <c r="H83">
+        <v>7.3</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0.066</v>
+      </c>
+      <c r="K83">
+        <v>0.03800000000000001</v>
+      </c>
+      <c r="L83">
+        <v>0.028</v>
+      </c>
+      <c r="M83">
+        <v>1.80193167</v>
+      </c>
+      <c r="N83">
+        <v>-1.77393167</v>
+      </c>
+      <c r="O83">
+        <v>-0.532179501</v>
+      </c>
+      <c r="P83">
+        <v>-1.241752169</v>
+      </c>
+      <c r="Q83">
+        <v>-1.203752169</v>
+      </c>
+      <c r="R83">
+        <v>4.263157894736843</v>
+      </c>
+      <c r="S83">
+        <v>0.2583680100624859</v>
+      </c>
+      <c r="T83">
+        <v>5.276864619967922</v>
+      </c>
+      <c r="U83">
+        <v>0.1837</v>
+      </c>
+      <c r="V83">
+        <v>0.004661664001942981</v>
+      </c>
+      <c r="W83">
+        <v>0.1828436523228431</v>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y83">
+        <v>0.01553888000647663</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="B84">
+        <v>0.1989372802933752</v>
+      </c>
+      <c r="C84">
+        <v>-6.743041290255139</v>
+      </c>
+      <c r="D84">
+        <v>2.802158709744862</v>
+      </c>
+      <c r="E84">
+        <v>5.120200000000001</v>
+      </c>
+      <c r="F84">
+        <v>9.930200000000001</v>
+      </c>
+      <c r="G84">
+        <v>0.385</v>
+      </c>
+      <c r="H84">
+        <v>7.3</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0.066</v>
+      </c>
+      <c r="K84">
+        <v>0.03800000000000001</v>
+      </c>
+      <c r="L84">
+        <v>0.028</v>
+      </c>
+      <c r="M84">
+        <v>1.82417774</v>
+      </c>
+      <c r="N84">
+        <v>-1.79617774</v>
+      </c>
+      <c r="O84">
+        <v>-0.538853322</v>
+      </c>
+      <c r="P84">
+        <v>-1.257324418</v>
+      </c>
+      <c r="Q84">
+        <v>-1.219324418</v>
+      </c>
+      <c r="R84">
+        <v>4.555555555555557</v>
+      </c>
+      <c r="S84">
+        <v>0.272205121732624</v>
+      </c>
+      <c r="T84">
+        <v>5.570023765521696</v>
+      </c>
+      <c r="U84">
+        <v>0.1837</v>
+      </c>
+      <c r="V84">
+        <v>0.004604814440943676</v>
+      </c>
+      <c r="W84">
+        <v>0.1828540955871986</v>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y84">
+        <v>0.01534938146981224</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="B85">
+        <v>0.2006812802933752</v>
+      </c>
+      <c r="C85">
+        <v>-6.889676519104605</v>
+      </c>
+      <c r="D85">
+        <v>2.776623480895396</v>
+      </c>
+      <c r="E85">
+        <v>5.241300000000002</v>
+      </c>
+      <c r="F85">
+        <v>10.0513</v>
+      </c>
+      <c r="G85">
+        <v>0.385</v>
+      </c>
+      <c r="H85">
+        <v>7.3</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0.066</v>
+      </c>
+      <c r="K85">
+        <v>0.03800000000000001</v>
+      </c>
+      <c r="L85">
+        <v>0.028</v>
+      </c>
+      <c r="M85">
+        <v>1.84642381</v>
+      </c>
+      <c r="N85">
+        <v>-1.81842381</v>
+      </c>
+      <c r="O85">
+        <v>-0.545527143</v>
+      </c>
+      <c r="P85">
+        <v>-1.272896667</v>
+      </c>
+      <c r="Q85">
+        <v>-1.234896667</v>
+      </c>
+      <c r="R85">
+        <v>4.882352941176473</v>
+      </c>
+      <c r="S85">
+        <v>0.2876701288933666</v>
+      </c>
+      <c r="T85">
+        <v>5.89767222231709</v>
+      </c>
+      <c r="U85">
+        <v>0.1837</v>
+      </c>
+      <c r="V85">
+        <v>0.004549334748884113</v>
+      </c>
+      <c r="W85">
+        <v>0.18286428720663</v>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y85">
+        <v>0.01516444916294701</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>0.84</v>
+      </c>
+      <c r="B86">
+        <v>0.2024252802933752</v>
+      </c>
+      <c r="C86">
+        <v>-7.035850560904441</v>
+      </c>
+      <c r="D86">
+        <v>2.751549439095558</v>
+      </c>
+      <c r="E86">
+        <v>5.3624</v>
+      </c>
+      <c r="F86">
+        <v>10.1724</v>
+      </c>
+      <c r="G86">
+        <v>0.385</v>
+      </c>
+      <c r="H86">
+        <v>7.3</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0.066</v>
+      </c>
+      <c r="K86">
+        <v>0.03800000000000001</v>
+      </c>
+      <c r="L86">
+        <v>0.028</v>
+      </c>
+      <c r="M86">
+        <v>1.86866988</v>
+      </c>
+      <c r="N86">
+        <v>-1.84066988</v>
+      </c>
+      <c r="O86">
+        <v>-0.552200964</v>
+      </c>
+      <c r="P86">
+        <v>-1.288468916</v>
+      </c>
+      <c r="Q86">
+        <v>-1.250468916</v>
+      </c>
+      <c r="R86">
+        <v>5.249999999999999</v>
+      </c>
+      <c r="S86">
+        <v>0.3050682619492018</v>
+      </c>
+      <c r="T86">
+        <v>6.266276736211904</v>
+      </c>
+      <c r="U86">
+        <v>0.1837</v>
+      </c>
+      <c r="V86">
+        <v>0.004495176001873589</v>
+      </c>
+      <c r="W86">
+        <v>0.1828742361684558</v>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y86">
+        <v>0.01498392000624527</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>0.85</v>
+      </c>
+      <c r="B87">
+        <v>0.2041692802933752</v>
+      </c>
+      <c r="C87">
+        <v>-7.181575797958524</v>
+      </c>
+      <c r="D87">
+        <v>2.726924202041476</v>
+      </c>
+      <c r="E87">
+        <v>5.4835</v>
+      </c>
+      <c r="F87">
+        <v>10.2935</v>
+      </c>
+      <c r="G87">
+        <v>0.385</v>
+      </c>
+      <c r="H87">
+        <v>7.3</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0.066</v>
+      </c>
+      <c r="K87">
+        <v>0.03800000000000001</v>
+      </c>
+      <c r="L87">
+        <v>0.028</v>
+      </c>
+      <c r="M87">
+        <v>1.89091595</v>
+      </c>
+      <c r="N87">
+        <v>-1.86291595</v>
+      </c>
+      <c r="O87">
+        <v>-0.558874785</v>
+      </c>
+      <c r="P87">
+        <v>-1.304041165</v>
+      </c>
+      <c r="Q87">
+        <v>-1.266041165</v>
+      </c>
+      <c r="R87">
+        <v>5.666666666666666</v>
+      </c>
+      <c r="S87">
+        <v>0.3247861460791486</v>
+      </c>
+      <c r="T87">
+        <v>6.684028518626032</v>
+      </c>
+      <c r="U87">
+        <v>0.1837</v>
+      </c>
+      <c r="V87">
+        <v>0.004442291578322135</v>
+      </c>
+      <c r="W87">
+        <v>0.1828839510370622</v>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y87">
+        <v>0.01480763859440715</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>0.86</v>
+      </c>
+      <c r="B88">
+        <v>0.2059132802933752</v>
+      </c>
+      <c r="C88">
+        <v>-7.326864173236451</v>
+      </c>
+      <c r="D88">
+        <v>2.70273582676355</v>
+      </c>
+      <c r="E88">
+        <v>5.6046</v>
+      </c>
+      <c r="F88">
+        <v>10.4146</v>
+      </c>
+      <c r="G88">
+        <v>0.385</v>
+      </c>
+      <c r="H88">
+        <v>7.3</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0.066</v>
+      </c>
+      <c r="K88">
+        <v>0.03800000000000001</v>
+      </c>
+      <c r="L88">
+        <v>0.028</v>
+      </c>
+      <c r="M88">
+        <v>1.91316202</v>
+      </c>
+      <c r="N88">
+        <v>-1.88516202</v>
+      </c>
+      <c r="O88">
+        <v>-0.565548606</v>
+      </c>
+      <c r="P88">
+        <v>-1.319613414</v>
+      </c>
+      <c r="Q88">
+        <v>-1.281613414</v>
+      </c>
+      <c r="R88">
+        <v>6.142857142857142</v>
+      </c>
+      <c r="S88">
+        <v>0.3473208707990879</v>
+      </c>
+      <c r="T88">
+        <v>7.16145912709932</v>
+      </c>
+      <c r="U88">
+        <v>0.1837</v>
+      </c>
+      <c r="V88">
+        <v>0.00439063702508583</v>
+      </c>
+      <c r="W88">
+        <v>0.1828934399784918</v>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y88">
+        <v>0.0146354567502861</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>0.87</v>
+      </c>
+      <c r="B89">
+        <v>0.2076572802933752</v>
+      </c>
+      <c r="C89">
+        <v>-7.471727209687163</v>
+      </c>
+      <c r="D89">
+        <v>2.678972790312837</v>
+      </c>
+      <c r="E89">
+        <v>5.725700000000001</v>
+      </c>
+      <c r="F89">
+        <v>10.5357</v>
+      </c>
+      <c r="G89">
+        <v>0.385</v>
+      </c>
+      <c r="H89">
+        <v>7.3</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0.066</v>
+      </c>
+      <c r="K89">
+        <v>0.03800000000000001</v>
+      </c>
+      <c r="L89">
+        <v>0.028</v>
+      </c>
+      <c r="M89">
+        <v>1.93540809</v>
+      </c>
+      <c r="N89">
+        <v>-1.90740809</v>
+      </c>
+      <c r="O89">
+        <v>-0.572222427</v>
+      </c>
+      <c r="P89">
+        <v>-1.335185663</v>
+      </c>
+      <c r="Q89">
+        <v>-1.297185663</v>
+      </c>
+      <c r="R89">
+        <v>6.692307692307692</v>
+      </c>
+      <c r="S89">
+        <v>0.3733224762451716</v>
+      </c>
+      <c r="T89">
+        <v>7.712340598414652</v>
+      </c>
+      <c r="U89">
+        <v>0.1837</v>
+      </c>
+      <c r="V89">
+        <v>0.004340169932843464</v>
+      </c>
+      <c r="W89">
+        <v>0.1829027107833367</v>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y89">
+        <v>0.01446723310947828</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>0.88</v>
+      </c>
+      <c r="B90">
+        <v>0.2094012802933752</v>
+      </c>
+      <c r="C90">
+        <v>-7.616176028542571</v>
+      </c>
+      <c r="D90">
+        <v>2.655623971457427</v>
+      </c>
+      <c r="E90">
+        <v>5.846799999999999</v>
+      </c>
+      <c r="F90">
+        <v>10.6568</v>
+      </c>
+      <c r="G90">
+        <v>0.385</v>
+      </c>
+      <c r="H90">
+        <v>7.3</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0.066</v>
+      </c>
+      <c r="K90">
+        <v>0.03800000000000001</v>
+      </c>
+      <c r="L90">
+        <v>0.028</v>
+      </c>
+      <c r="M90">
+        <v>1.95765416</v>
+      </c>
+      <c r="N90">
+        <v>-1.92965416</v>
+      </c>
+      <c r="O90">
+        <v>-0.5788962479999998</v>
+      </c>
+      <c r="P90">
+        <v>-1.350757912</v>
+      </c>
+      <c r="Q90">
+        <v>-1.312757912</v>
+      </c>
+      <c r="R90">
+        <v>7.333333333333334</v>
+      </c>
+      <c r="S90">
+        <v>0.4036576825989359</v>
+      </c>
+      <c r="T90">
+        <v>8.355035648282541</v>
+      </c>
+      <c r="U90">
+        <v>0.1837</v>
+      </c>
+      <c r="V90">
+        <v>0.004290849819970245</v>
+      </c>
+      <c r="W90">
+        <v>0.1829117708880715</v>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y90">
+        <v>0.01430283273323418</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>0.89</v>
+      </c>
+      <c r="B91">
+        <v>0.2111452802933752</v>
+      </c>
+      <c r="C91">
+        <v>-7.760221366672302</v>
+      </c>
+      <c r="D91">
+        <v>2.632678633327697</v>
+      </c>
+      <c r="E91">
+        <v>5.967899999999999</v>
+      </c>
+      <c r="F91">
+        <v>10.7779</v>
+      </c>
+      <c r="G91">
+        <v>0.385</v>
+      </c>
+      <c r="H91">
+        <v>7.3</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0.066</v>
+      </c>
+      <c r="K91">
+        <v>0.03800000000000001</v>
+      </c>
+      <c r="L91">
+        <v>0.028</v>
+      </c>
+      <c r="M91">
+        <v>1.97990023</v>
+      </c>
+      <c r="N91">
+        <v>-1.95190023</v>
+      </c>
+      <c r="O91">
+        <v>-0.585570069</v>
+      </c>
+      <c r="P91">
+        <v>-1.366330161</v>
+      </c>
+      <c r="Q91">
+        <v>-1.328330161</v>
+      </c>
+      <c r="R91">
+        <v>8.090909090909092</v>
+      </c>
+      <c r="S91">
+        <v>0.439508381017021</v>
+      </c>
+      <c r="T91">
+        <v>9.114584343580955</v>
+      </c>
+      <c r="U91">
+        <v>0.1837</v>
+      </c>
+      <c r="V91">
+        <v>0.004242638024240241</v>
+      </c>
+      <c r="W91">
+        <v>0.1829206273949471</v>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y91">
+        <v>0.01414212674746751</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>0.9</v>
+      </c>
+      <c r="B92">
+        <v>0.2128892802933752</v>
+      </c>
+      <c r="C92">
+        <v>-7.903873593046438</v>
+      </c>
+      <c r="D92">
+        <v>2.610126406953562</v>
+      </c>
+      <c r="E92">
+        <v>6.089</v>
+      </c>
+      <c r="F92">
+        <v>10.899</v>
+      </c>
+      <c r="G92">
+        <v>0.385</v>
+      </c>
+      <c r="H92">
+        <v>7.3</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0.066</v>
+      </c>
+      <c r="K92">
+        <v>0.03800000000000001</v>
+      </c>
+      <c r="L92">
+        <v>0.028</v>
+      </c>
+      <c r="M92">
+        <v>2.0021463</v>
+      </c>
+      <c r="N92">
+        <v>-1.9741463</v>
+      </c>
+      <c r="O92">
+        <v>-0.5922438899999999</v>
+      </c>
+      <c r="P92">
+        <v>-1.38190241</v>
+      </c>
+      <c r="Q92">
+        <v>-1.34390241</v>
+      </c>
+      <c r="R92">
+        <v>9.000000000000002</v>
+      </c>
+      <c r="S92">
+        <v>0.4825292191187232</v>
+      </c>
+      <c r="T92">
+        <v>10.02604277793905</v>
+      </c>
+      <c r="U92">
+        <v>0.1837</v>
+      </c>
+      <c r="V92">
+        <v>0.004195497601748683</v>
+      </c>
+      <c r="W92">
+        <v>0.1829292870905588</v>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y92">
+        <v>0.01398499200582892</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>0.91</v>
+      </c>
+      <c r="B93">
+        <v>0.2146332802933752</v>
+      </c>
+      <c r="C93">
+        <v>-8.047142724359311</v>
+      </c>
+      <c r="D93">
+        <v>2.587957275640688</v>
+      </c>
+      <c r="E93">
+        <v>6.2101</v>
+      </c>
+      <c r="F93">
+        <v>11.0201</v>
+      </c>
+      <c r="G93">
+        <v>0.385</v>
+      </c>
+      <c r="H93">
+        <v>7.3</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0.066</v>
+      </c>
+      <c r="K93">
+        <v>0.03800000000000001</v>
+      </c>
+      <c r="L93">
+        <v>0.028</v>
+      </c>
+      <c r="M93">
+        <v>2.02439237</v>
+      </c>
+      <c r="N93">
+        <v>-1.99639237</v>
+      </c>
+      <c r="O93">
+        <v>-0.5989177109999999</v>
+      </c>
+      <c r="P93">
+        <v>-1.397474659</v>
+      </c>
+      <c r="Q93">
+        <v>-1.359474659</v>
+      </c>
+      <c r="R93">
+        <v>10.11111111111111</v>
+      </c>
+      <c r="S93">
+        <v>0.5351102434652479</v>
+      </c>
+      <c r="T93">
+        <v>11.14004753104339</v>
+      </c>
+      <c r="U93">
+        <v>0.1837</v>
+      </c>
+      <c r="V93">
+        <v>0.004149393232498698</v>
+      </c>
+      <c r="W93">
+        <v>0.18293775646319</v>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y93">
+        <v>0.01383131077499566</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>0.92</v>
+      </c>
+      <c r="B94">
+        <v>0.2163772802933752</v>
+      </c>
+      <c r="C94">
+        <v>-8.190038439863798</v>
+      </c>
+      <c r="D94">
+        <v>2.566161560136201</v>
+      </c>
+      <c r="E94">
+        <v>6.3312</v>
+      </c>
+      <c r="F94">
+        <v>11.1412</v>
+      </c>
+      <c r="G94">
+        <v>0.385</v>
+      </c>
+      <c r="H94">
+        <v>7.3</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0.066</v>
+      </c>
+      <c r="K94">
+        <v>0.03800000000000001</v>
+      </c>
+      <c r="L94">
+        <v>0.028</v>
+      </c>
+      <c r="M94">
+        <v>2.04663844</v>
+      </c>
+      <c r="N94">
+        <v>-2.01863844</v>
+      </c>
+      <c r="O94">
+        <v>-0.6055915319999999</v>
+      </c>
+      <c r="P94">
+        <v>-1.413046908</v>
+      </c>
+      <c r="Q94">
+        <v>-1.375046908</v>
+      </c>
+      <c r="R94">
+        <v>11.50000000000001</v>
+      </c>
+      <c r="S94">
+        <v>0.6008365238984041</v>
+      </c>
+      <c r="T94">
+        <v>12.53255347242382</v>
+      </c>
+      <c r="U94">
+        <v>0.1837</v>
+      </c>
+      <c r="V94">
+        <v>0.004104291132145451</v>
+      </c>
+      <c r="W94">
+        <v>0.1829460417190249</v>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y94">
+        <v>0.01368097044048489</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>0.93</v>
+      </c>
+      <c r="B95">
+        <v>0.2181212802933752</v>
+      </c>
+      <c r="C95">
+        <v>-8.332570095462261</v>
+      </c>
+      <c r="D95">
+        <v>2.544729904537739</v>
+      </c>
+      <c r="E95">
+        <v>6.4523</v>
+      </c>
+      <c r="F95">
+        <v>11.2623</v>
+      </c>
+      <c r="G95">
+        <v>0.385</v>
+      </c>
+      <c r="H95">
+        <v>7.3</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0.066</v>
+      </c>
+      <c r="K95">
+        <v>0.03800000000000001</v>
+      </c>
+      <c r="L95">
+        <v>0.028</v>
+      </c>
+      <c r="M95">
+        <v>2.06888451</v>
+      </c>
+      <c r="N95">
+        <v>-2.04088451</v>
+      </c>
+      <c r="O95">
+        <v>-0.6122653530000001</v>
+      </c>
+      <c r="P95">
+        <v>-1.428619157</v>
+      </c>
+      <c r="Q95">
+        <v>-1.390619157</v>
+      </c>
+      <c r="R95">
+        <v>13.2857142857143</v>
+      </c>
+      <c r="S95">
+        <v>0.6853417415981763</v>
+      </c>
+      <c r="T95">
+        <v>14.32291825419865</v>
+      </c>
+      <c r="U95">
+        <v>0.1837</v>
+      </c>
+      <c r="V95">
+        <v>0.004060158969434209</v>
+      </c>
+      <c r="W95">
+        <v>0.1829541487973149</v>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y95">
+        <v>0.01353386323144734</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="B96">
+        <v>0.2198652802933752</v>
+      </c>
+      <c r="C96">
+        <v>-8.474746737097249</v>
+      </c>
+      <c r="D96">
+        <v>2.523653262902752</v>
+      </c>
+      <c r="E96">
+        <v>6.5734</v>
+      </c>
+      <c r="F96">
+        <v>11.3834</v>
+      </c>
+      <c r="G96">
+        <v>0.385</v>
+      </c>
+      <c r="H96">
+        <v>7.3</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0.066</v>
+      </c>
+      <c r="K96">
+        <v>0.03800000000000001</v>
+      </c>
+      <c r="L96">
+        <v>0.028</v>
+      </c>
+      <c r="M96">
+        <v>2.09113058</v>
+      </c>
+      <c r="N96">
+        <v>-2.06313058</v>
+      </c>
+      <c r="O96">
+        <v>-0.618939174</v>
+      </c>
+      <c r="P96">
+        <v>-1.444191406</v>
+      </c>
+      <c r="Q96">
+        <v>-1.406191406</v>
+      </c>
+      <c r="R96">
+        <v>15.66666666666668</v>
+      </c>
+      <c r="S96">
+        <v>0.7980153651978725</v>
+      </c>
+      <c r="T96">
+        <v>16.7100712965651</v>
+      </c>
+      <c r="U96">
+        <v>0.1837</v>
+      </c>
+      <c r="V96">
+        <v>0.004016965788908313</v>
+      </c>
+      <c r="W96">
+        <v>0.1829620833845775</v>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y96">
+        <v>0.0133898859630277</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="B97">
+        <v>0.2216092802933752</v>
+      </c>
+      <c r="C97">
+        <v>-8.616577113482212</v>
+      </c>
+      <c r="D97">
+        <v>2.502922886517788</v>
+      </c>
+      <c r="E97">
+        <v>6.694500000000001</v>
+      </c>
+      <c r="F97">
+        <v>11.5045</v>
+      </c>
+      <c r="G97">
+        <v>0.385</v>
+      </c>
+      <c r="H97">
+        <v>7.3</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0.066</v>
+      </c>
+      <c r="K97">
+        <v>0.03800000000000001</v>
+      </c>
+      <c r="L97">
+        <v>0.028</v>
+      </c>
+      <c r="M97">
+        <v>2.11337665</v>
+      </c>
+      <c r="N97">
+        <v>-2.08537665</v>
+      </c>
+      <c r="O97">
+        <v>-0.625612995</v>
+      </c>
+      <c r="P97">
+        <v>-1.459763655</v>
+      </c>
+      <c r="Q97">
+        <v>-1.421763655</v>
+      </c>
+      <c r="R97">
+        <v>19.00000000000003</v>
+      </c>
+      <c r="S97">
+        <v>0.9557584382374474</v>
+      </c>
+      <c r="T97">
+        <v>20.05208555587813</v>
+      </c>
+      <c r="U97">
+        <v>0.1837</v>
+      </c>
+      <c r="V97">
+        <v>0.003974681938498752</v>
+      </c>
+      <c r="W97">
+        <v>0.1829698509278978</v>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y97">
+        <v>0.01324893979499586</v>
+      </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>0.96</v>
+      </c>
+      <c r="B98">
+        <v>0.2233532802933752</v>
+      </c>
+      <c r="C98">
+        <v>-8.758069688209886</v>
+      </c>
+      <c r="D98">
+        <v>2.482530311790112</v>
+      </c>
+      <c r="E98">
+        <v>6.815599999999999</v>
+      </c>
+      <c r="F98">
+        <v>11.6256</v>
+      </c>
+      <c r="G98">
+        <v>0.385</v>
+      </c>
+      <c r="H98">
+        <v>7.3</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0.066</v>
+      </c>
+      <c r="K98">
+        <v>0.03800000000000001</v>
+      </c>
+      <c r="L98">
+        <v>0.028</v>
+      </c>
+      <c r="M98">
+        <v>2.13562272</v>
+      </c>
+      <c r="N98">
+        <v>-2.10762272</v>
+      </c>
+      <c r="O98">
+        <v>-0.6322868159999999</v>
+      </c>
+      <c r="P98">
+        <v>-1.475335904</v>
+      </c>
+      <c r="Q98">
+        <v>-1.437335904</v>
+      </c>
+      <c r="R98">
+        <v>23.99999999999998</v>
+      </c>
+      <c r="S98">
+        <v>1.192373047796807</v>
+      </c>
+      <c r="T98">
+        <v>25.0651069448476</v>
+      </c>
+      <c r="U98">
+        <v>0.1837</v>
+      </c>
+      <c r="V98">
+        <v>0.00393327900163939</v>
+      </c>
+      <c r="W98">
+        <v>0.1829774566473988</v>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y98">
+        <v>0.01311093000546459</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>0.97</v>
+      </c>
+      <c r="B99">
+        <v>0.2250972802933752</v>
+      </c>
+      <c r="C99">
+        <v>-8.899232651273536</v>
+      </c>
+      <c r="D99">
+        <v>2.462467348726463</v>
+      </c>
+      <c r="E99">
+        <v>6.936699999999999</v>
+      </c>
+      <c r="F99">
+        <v>11.7467</v>
+      </c>
+      <c r="G99">
+        <v>0.385</v>
+      </c>
+      <c r="H99">
+        <v>7.3</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0.066</v>
+      </c>
+      <c r="K99">
+        <v>0.03800000000000001</v>
+      </c>
+      <c r="L99">
+        <v>0.028</v>
+      </c>
+      <c r="M99">
+        <v>2.15786879</v>
+      </c>
+      <c r="N99">
+        <v>-2.12986879</v>
+      </c>
+      <c r="O99">
+        <v>-0.6389606369999999</v>
+      </c>
+      <c r="P99">
+        <v>-1.490908153</v>
+      </c>
+      <c r="Q99">
+        <v>-1.452908153</v>
+      </c>
+      <c r="R99">
+        <v>32.33333333333331</v>
+      </c>
+      <c r="S99">
+        <v>1.586730730395743</v>
+      </c>
+      <c r="T99">
+        <v>33.42014259313014</v>
+      </c>
+      <c r="U99">
+        <v>0.1837</v>
+      </c>
+      <c r="V99">
+        <v>0.003892729733581253</v>
+      </c>
+      <c r="W99">
+        <v>0.1829849055479411</v>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y99">
+        <v>0.01297576577860415</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>0.98</v>
+      </c>
+      <c r="B100">
+        <v>0.2268412802933752</v>
+      </c>
+      <c r="C100">
+        <v>-9.040073930033998</v>
+      </c>
+      <c r="D100">
+        <v>2.442726069966002</v>
+      </c>
+      <c r="E100">
+        <v>7.057799999999999</v>
+      </c>
+      <c r="F100">
+        <v>11.8678</v>
+      </c>
+      <c r="G100">
+        <v>0.385</v>
+      </c>
+      <c r="H100">
+        <v>7.3</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0.066</v>
+      </c>
+      <c r="K100">
+        <v>0.03800000000000001</v>
+      </c>
+      <c r="L100">
+        <v>0.028</v>
+      </c>
+      <c r="M100">
+        <v>2.18011486</v>
+      </c>
+      <c r="N100">
+        <v>-2.15211486</v>
+      </c>
+      <c r="O100">
+        <v>-0.6456344579999999</v>
+      </c>
+      <c r="P100">
+        <v>-1.506480402</v>
+      </c>
+      <c r="Q100">
+        <v>-1.468480402</v>
+      </c>
+      <c r="R100">
+        <v>48.99999999999996</v>
+      </c>
+      <c r="S100">
+        <v>2.375446095593613</v>
+      </c>
+      <c r="T100">
+        <v>50.1302138896952</v>
+      </c>
+      <c r="U100">
+        <v>0.1837</v>
+      </c>
+      <c r="V100">
+        <v>0.003853008001605933</v>
+      </c>
+      <c r="W100">
+        <v>0.182992202430105</v>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y100">
+        <v>0.01284336000535313</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>0.99</v>
+      </c>
+      <c r="B101">
+        <v>0.2285852802933752</v>
+      </c>
+      <c r="C101">
+        <v>-9.18060119966341</v>
+      </c>
+      <c r="D101">
+        <v>2.423298800336589</v>
+      </c>
+      <c r="E101">
+        <v>7.1789</v>
+      </c>
+      <c r="F101">
+        <v>11.9889</v>
+      </c>
+      <c r="G101">
+        <v>0.385</v>
+      </c>
+      <c r="H101">
+        <v>7.3</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0.066</v>
+      </c>
+      <c r="K101">
+        <v>0.03800000000000001</v>
+      </c>
+      <c r="L101">
+        <v>0.028</v>
+      </c>
+      <c r="M101">
+        <v>2.20236093</v>
+      </c>
+      <c r="N101">
+        <v>-2.17436093</v>
+      </c>
+      <c r="O101">
+        <v>-0.6523082789999999</v>
+      </c>
+      <c r="P101">
+        <v>-1.522052651</v>
+      </c>
+      <c r="Q101">
+        <v>-1.484052651</v>
+      </c>
+      <c r="R101">
+        <v>98.99999999999991</v>
+      </c>
+      <c r="S101">
+        <v>4.741592191187226</v>
+      </c>
+      <c r="T101">
+        <v>100.2604277793904</v>
+      </c>
+      <c r="U101">
+        <v>0.1837</v>
+      </c>
+      <c r="V101">
+        <v>0.003814088728862439</v>
+      </c>
+      <c r="W101">
+        <v>0.182999351900508</v>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y101">
+        <v>0.0127136290962081</v>
+      </c>
+      <c r="Z101">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
